--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -713,16 +713,16 @@
     <t>field: fu50</t>
   </si>
   <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>Chemahororo Clinic</t>
-  </si>
-  <si>
-    <t>Dongamuzi Rural Health Centre</t>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Beula</t>
+  </si>
+  <si>
+    <t>Natisa</t>
+  </si>
+  <si>
+    <t>Zengeza Clinic</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY3"/>
+  <dimension ref="A1:BY4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1815,19 +1815,19 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1842,38 +1842,38 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
         <v>5</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>6</v>
+      </c>
+      <c r="AN2">
         <v>5</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
       <c r="AO2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS2">
+        <v>6</v>
+      </c>
+      <c r="BT2">
         <v>5</v>
       </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
       <c r="BU2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2039,228 +2039,458 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>7</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="s">
         <v>235</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>5</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>3</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>74</v>
+      </c>
+      <c r="W4">
+        <v>74</v>
+      </c>
+      <c r="X4">
+        <v>69</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>11</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>64</v>
+      </c>
+      <c r="AM4">
+        <v>67</v>
+      </c>
+      <c r="AN4">
+        <v>56</v>
+      </c>
+      <c r="AO4">
+        <v>7</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>85</v>
+      </c>
+      <c r="BS4">
+        <v>75</v>
+      </c>
+      <c r="BT4">
+        <v>69</v>
+      </c>
+      <c r="BU4">
+        <v>10</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="235">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -716,13 +716,10 @@
     <t>April</t>
   </si>
   <si>
-    <t>Beula</t>
-  </si>
-  <si>
-    <t>Natisa</t>
-  </si>
-  <si>
-    <t>Zengeza Clinic</t>
+    <t>Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>Chitsungo Mission Hospital</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1818,49 +1815,49 @@
         <v>233</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1869,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1917,22 +1914,22 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2010,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BS2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="BT2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -2048,22 +2045,22 @@
         <v>234</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2072,22 +2069,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2096,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -2144,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2156,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2195,302 +2192,72 @@
         <v>0</v>
       </c>
       <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>28</v>
+      </c>
+      <c r="BS3">
+        <v>22</v>
+      </c>
+      <c r="BT3">
+        <v>23</v>
+      </c>
+      <c r="BU3">
+        <v>10</v>
+      </c>
+      <c r="BV3">
         <v>1</v>
       </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>7</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
       <c r="BW3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77">
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4">
-        <v>2025</v>
-      </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-      <c r="G4">
-        <v>75</v>
-      </c>
-      <c r="H4">
-        <v>69</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>74</v>
-      </c>
-      <c r="W4">
-        <v>74</v>
-      </c>
-      <c r="X4">
-        <v>69</v>
-      </c>
-      <c r="Y4">
-        <v>9</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>11</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>64</v>
-      </c>
-      <c r="AM4">
-        <v>67</v>
-      </c>
-      <c r="AN4">
-        <v>56</v>
-      </c>
-      <c r="AO4">
-        <v>7</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>85</v>
-      </c>
-      <c r="BS4">
-        <v>75</v>
-      </c>
-      <c r="BT4">
-        <v>69</v>
-      </c>
-      <c r="BU4">
-        <v>10</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -720,6 +720,12 @@
   </si>
   <si>
     <t>Chitsungo Mission Hospital</t>
+  </si>
+  <si>
+    <t>Citi Med</t>
+  </si>
+  <si>
+    <t>Seke North Clinic</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY3"/>
+  <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2261,6 +2267,466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:77">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4">
+        <v>118</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>118</v>
+      </c>
+      <c r="W4">
+        <v>49</v>
+      </c>
+      <c r="X4">
+        <v>19</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>48</v>
+      </c>
+      <c r="AM4">
+        <v>40</v>
+      </c>
+      <c r="AN4">
+        <v>16</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>91</v>
+      </c>
+      <c r="BS4">
+        <v>32</v>
+      </c>
+      <c r="BT4">
+        <v>11</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:77">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>75</v>
+      </c>
+      <c r="W5">
+        <v>77</v>
+      </c>
+      <c r="X5">
+        <v>55</v>
+      </c>
+      <c r="Y5">
+        <v>26</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>66</v>
+      </c>
+      <c r="AM5">
+        <v>74</v>
+      </c>
+      <c r="AN5">
+        <v>51</v>
+      </c>
+      <c r="AO5">
+        <v>24</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>2</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>77</v>
+      </c>
+      <c r="BS5">
+        <v>78</v>
+      </c>
+      <c r="BT5">
+        <v>55</v>
+      </c>
+      <c r="BU5">
+        <v>26</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="244">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -719,13 +719,34 @@
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chiroti Clinic</t>
+  </si>
+  <si>
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
     <t>Citi Med</t>
   </si>
   <si>
+    <t>Deve Clinic</t>
+  </si>
+  <si>
+    <t>Gokwe South District Hospital</t>
+  </si>
+  <si>
+    <t>Hurungwe RH</t>
+  </si>
+  <si>
+    <t>Kapfunde Clinic</t>
+  </si>
+  <si>
+    <t>Nyamhunga Sengwe Clinic</t>
+  </si>
+  <si>
     <t>Seke North Clinic</t>
+  </si>
+  <si>
+    <t>Zvipani Rural Health Centre</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY5"/>
+  <dimension ref="A1:BY12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,211 +1842,211 @@
         <v>233</v>
       </c>
       <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>54</v>
-      </c>
       <c r="H2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>9</v>
+      </c>
+      <c r="AM2">
+        <v>17</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>9</v>
+      </c>
+      <c r="BS2">
+        <v>17</v>
+      </c>
+      <c r="BT2">
+        <v>10</v>
+      </c>
+      <c r="BU2">
+        <v>6</v>
+      </c>
+      <c r="BV2">
         <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>17</v>
-      </c>
-      <c r="O2">
-        <v>54</v>
-      </c>
-      <c r="P2">
-        <v>32</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>7</v>
-      </c>
-      <c r="AN2">
-        <v>14</v>
-      </c>
-      <c r="AO2">
-        <v>15</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>12</v>
-      </c>
-      <c r="BS2">
-        <v>44</v>
-      </c>
-      <c r="BT2">
-        <v>28</v>
-      </c>
-      <c r="BU2">
-        <v>10</v>
-      </c>
-      <c r="BV2">
-        <v>2</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -2051,217 +2072,217 @@
         <v>234</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>24</v>
-      </c>
       <c r="P3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>2</v>
+      </c>
+      <c r="BS3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
+      <c r="BT3">
         <v>3</v>
       </c>
-      <c r="AM3">
+      <c r="BU3">
+        <v>4</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
         <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>28</v>
-      </c>
-      <c r="BS3">
-        <v>22</v>
-      </c>
-      <c r="BT3">
-        <v>23</v>
-      </c>
-      <c r="BU3">
-        <v>10</v>
-      </c>
-      <c r="BV3">
-        <v>1</v>
-      </c>
-      <c r="BW3">
-        <v>3</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -2281,22 +2302,22 @@
         <v>235</v>
       </c>
       <c r="F4">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2305,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2329,61 +2350,61 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>48</v>
-      </c>
-      <c r="AM4">
-        <v>40</v>
-      </c>
       <c r="AN4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2473,22 +2494,22 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="BS4">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="BT4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -2511,219 +2532,1829 @@
         <v>236</v>
       </c>
       <c r="F5">
+        <v>118</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>118</v>
+      </c>
+      <c r="W5">
+        <v>49</v>
+      </c>
+      <c r="X5">
+        <v>19</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>48</v>
+      </c>
+      <c r="AM5">
+        <v>40</v>
+      </c>
+      <c r="AN5">
+        <v>16</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>91</v>
+      </c>
+      <c r="BS5">
+        <v>32</v>
+      </c>
+      <c r="BT5">
+        <v>11</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:77">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>4</v>
+      </c>
+      <c r="BS6">
+        <v>12</v>
+      </c>
+      <c r="BT6">
+        <v>7</v>
+      </c>
+      <c r="BU6">
+        <v>2</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>52</v>
+      </c>
+      <c r="W7">
+        <v>62</v>
+      </c>
+      <c r="X7">
+        <v>46</v>
+      </c>
+      <c r="Y7">
+        <v>13</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>52</v>
+      </c>
+      <c r="BS7">
+        <v>62</v>
+      </c>
+      <c r="BT7">
+        <v>46</v>
+      </c>
+      <c r="BU7">
+        <v>13</v>
+      </c>
+      <c r="BV7">
+        <v>3</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+      <c r="E9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>3</v>
+      </c>
+      <c r="BS9">
+        <v>6</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>2</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <v>2</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>8</v>
+      </c>
+      <c r="BT10">
+        <v>5</v>
+      </c>
+      <c r="BU10">
+        <v>2</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11">
         <v>77</v>
       </c>
-      <c r="G5">
+      <c r="G11">
         <v>78</v>
       </c>
-      <c r="H5">
+      <c r="H11">
         <v>55</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>26</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>75</v>
       </c>
-      <c r="W5">
+      <c r="W11">
         <v>77</v>
       </c>
-      <c r="X5">
+      <c r="X11">
         <v>55</v>
       </c>
-      <c r="Y5">
+      <c r="Y11">
         <v>26</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>2</v>
       </c>
-      <c r="AE5">
+      <c r="AE11">
         <v>1</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>66</v>
       </c>
-      <c r="AM5">
+      <c r="AM11">
         <v>74</v>
       </c>
-      <c r="AN5">
+      <c r="AN11">
         <v>51</v>
       </c>
-      <c r="AO5">
+      <c r="AO11">
         <v>24</v>
       </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
         <v>2</v>
       </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
         <v>77</v>
       </c>
-      <c r="BS5">
+      <c r="BS11">
         <v>78</v>
       </c>
-      <c r="BT5">
+      <c r="BT11">
         <v>55</v>
       </c>
-      <c r="BU5">
+      <c r="BU11">
         <v>26</v>
       </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12">
+        <v>2025</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>7</v>
+      </c>
+      <c r="BT12">
+        <v>3</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="247">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -716,6 +716,9 @@
     <t>April</t>
   </si>
   <si>
+    <t>Angwa Clinic</t>
+  </si>
+  <si>
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
@@ -734,10 +737,16 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>Hesketh Clinic</t>
+  </si>
+  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
     <t>Kapfunde Clinic</t>
+  </si>
+  <si>
+    <t>Mahuwe Clinic</t>
   </si>
   <si>
     <t>Nyamhunga Sengwe Clinic</t>
@@ -1589,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY12"/>
+  <dimension ref="A1:BY15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,49 +1851,49 @@
         <v>233</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1938,121 +1947,121 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
         <v>3</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>9</v>
-      </c>
       <c r="BS2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BT2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>1</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -2072,217 +2081,217 @@
         <v>234</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>9</v>
+      </c>
+      <c r="AM3">
+        <v>17</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>9</v>
+      </c>
+      <c r="BS3">
+        <v>17</v>
+      </c>
+      <c r="BT3">
+        <v>10</v>
+      </c>
+      <c r="BU3">
+        <v>6</v>
+      </c>
+      <c r="BV3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>2</v>
-      </c>
-      <c r="BS3">
-        <v>4</v>
-      </c>
-      <c r="BT3">
-        <v>3</v>
-      </c>
-      <c r="BU3">
-        <v>4</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
       <c r="BW3">
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -2302,217 +2311,217 @@
         <v>235</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>24</v>
-      </c>
       <c r="P4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>2</v>
+      </c>
+      <c r="BS4">
         <v>4</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
+      <c r="BT4">
         <v>3</v>
       </c>
-      <c r="AM4">
+      <c r="BU4">
+        <v>4</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
         <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>28</v>
-      </c>
-      <c r="BS4">
-        <v>22</v>
-      </c>
-      <c r="BT4">
-        <v>23</v>
-      </c>
-      <c r="BU4">
-        <v>10</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
-      <c r="BW4">
-        <v>3</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2532,23 +2541,23 @@
         <v>236</v>
       </c>
       <c r="F5">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -2556,22 +2565,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2580,67 +2589,67 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>1</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>48</v>
-      </c>
-      <c r="AM5">
-        <v>40</v>
-      </c>
-      <c r="AN5">
-        <v>16</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2724,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="BS5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BT5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -2762,19 +2771,19 @@
         <v>237</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2786,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2810,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -2858,19 +2867,19 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2954,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="BS6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="BT6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BU6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -2992,19 +3001,19 @@
         <v>238</v>
       </c>
       <c r="F7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3016,16 +3025,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3040,19 +3049,19 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3088,115 +3097,115 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>4</v>
+      </c>
+      <c r="BS7">
+        <v>12</v>
+      </c>
+      <c r="BT7">
+        <v>7</v>
+      </c>
+      <c r="BU7">
         <v>2</v>
       </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>52</v>
-      </c>
-      <c r="BS7">
-        <v>62</v>
-      </c>
-      <c r="BT7">
-        <v>46</v>
-      </c>
-      <c r="BU7">
-        <v>13</v>
-      </c>
       <c r="BV7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -3222,19 +3231,19 @@
         <v>239</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3270,19 +3279,19 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -3318,16 +3327,16 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -3414,19 +3423,19 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -3452,22 +3461,22 @@
         <v>240</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3476,22 +3485,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3500,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -3548,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -3644,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BS9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BT9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -3682,16 +3691,16 @@
         <v>241</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3706,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -3874,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV10">
         <v>0</v>
@@ -3912,22 +3921,22 @@
         <v>242</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3936,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -3960,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3984,142 +3993,142 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>3</v>
+      </c>
+      <c r="BS11">
+        <v>6</v>
+      </c>
+      <c r="BT11">
         <v>2</v>
       </c>
-      <c r="AE11">
+      <c r="BU11">
+        <v>2</v>
+      </c>
+      <c r="BV11">
         <v>1</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>66</v>
-      </c>
-      <c r="AM11">
-        <v>74</v>
-      </c>
-      <c r="AN11">
-        <v>51</v>
-      </c>
-      <c r="AO11">
-        <v>24</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
+      <c r="BW11">
         <v>2</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>77</v>
-      </c>
-      <c r="BS11">
-        <v>78</v>
-      </c>
-      <c r="BT11">
-        <v>55</v>
-      </c>
-      <c r="BU11">
-        <v>26</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
       </c>
       <c r="BX11">
         <v>0</v>
@@ -4142,22 +4151,22 @@
         <v>243</v>
       </c>
       <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4166,22 +4175,22 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4334,27 +4343,717 @@
         <v>0</v>
       </c>
       <c r="BR12">
+        <v>3</v>
+      </c>
+      <c r="BS12">
+        <v>5</v>
+      </c>
+      <c r="BT12">
         <v>1</v>
       </c>
-      <c r="BS12">
-        <v>7</v>
-      </c>
-      <c r="BT12">
-        <v>3</v>
-      </c>
       <c r="BU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV12">
         <v>1</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX12">
         <v>0</v>
       </c>
       <c r="BY12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>1</v>
+      </c>
+      <c r="BS13">
+        <v>8</v>
+      </c>
+      <c r="BT13">
+        <v>5</v>
+      </c>
+      <c r="BU13">
+        <v>2</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>75</v>
+      </c>
+      <c r="W14">
+        <v>77</v>
+      </c>
+      <c r="X14">
+        <v>55</v>
+      </c>
+      <c r="Y14">
+        <v>26</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>66</v>
+      </c>
+      <c r="AM14">
+        <v>74</v>
+      </c>
+      <c r="AN14">
+        <v>51</v>
+      </c>
+      <c r="AO14">
+        <v>24</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>77</v>
+      </c>
+      <c r="BS14">
+        <v>78</v>
+      </c>
+      <c r="BT14">
+        <v>55</v>
+      </c>
+      <c r="BU14">
+        <v>26</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>7</v>
+      </c>
+      <c r="BT15">
+        <v>3</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>1</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="248">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
-    <t>Hesketh Clinic</t>
-  </si>
-  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
@@ -747,6 +744,12 @@
   </si>
   <si>
     <t>Mahuwe Clinic</t>
+  </si>
+  <si>
+    <t>Mushumbi RHC</t>
+  </si>
+  <si>
+    <t>Nyambudzi Clinic</t>
   </si>
   <si>
     <t>Nyamhunga Sengwe Clinic</t>
@@ -1598,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY15"/>
+  <dimension ref="A1:BY16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3461,10 +3464,10 @@
         <v>240</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3509,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -3557,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -3653,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -3691,22 +3694,22 @@
         <v>241</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3715,22 +3718,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3883,22 +3886,22 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX10">
         <v>0</v>
@@ -3921,22 +3924,22 @@
         <v>242</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3945,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -4113,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX11">
         <v>0</v>
@@ -4151,107 +4154,107 @@
         <v>243</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="AM12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
       <c r="AN12">
         <v>0</v>
       </c>
@@ -4343,22 +4346,22 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BS12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BU12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -4384,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4408,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -4576,13 +4579,13 @@
         <v>1</v>
       </c>
       <c r="BS13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BT13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BU13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV13">
         <v>0</v>
@@ -4611,16 +4614,16 @@
         <v>245</v>
       </c>
       <c r="F14">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4635,16 +4638,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -4659,16 +4662,16 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -4683,136 +4686,136 @@
         <v>0</v>
       </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <v>8</v>
+      </c>
+      <c r="BT14">
+        <v>5</v>
+      </c>
+      <c r="BU14">
         <v>2</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>66</v>
-      </c>
-      <c r="AM14">
-        <v>74</v>
-      </c>
-      <c r="AN14">
-        <v>51</v>
-      </c>
-      <c r="AO14">
-        <v>24</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>2</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>77</v>
-      </c>
-      <c r="BS14">
-        <v>78</v>
-      </c>
-      <c r="BT14">
-        <v>55</v>
-      </c>
-      <c r="BU14">
-        <v>26</v>
       </c>
       <c r="BV14">
         <v>0</v>
@@ -4841,219 +4844,449 @@
         <v>246</v>
       </c>
       <c r="F15">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>75</v>
+      </c>
+      <c r="W15">
+        <v>77</v>
+      </c>
+      <c r="X15">
+        <v>55</v>
+      </c>
+      <c r="Y15">
+        <v>26</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>66</v>
+      </c>
+      <c r="AM15">
+        <v>74</v>
+      </c>
+      <c r="AN15">
+        <v>51</v>
+      </c>
+      <c r="AO15">
+        <v>24</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>77</v>
+      </c>
+      <c r="BS15">
+        <v>78</v>
+      </c>
+      <c r="BT15">
+        <v>55</v>
+      </c>
+      <c r="BU15">
+        <v>26</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
+      </c>
+      <c r="E16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>7</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
         <v>1</v>
       </c>
-      <c r="BS15">
+      <c r="BS16">
         <v>7</v>
       </c>
-      <c r="BT15">
+      <c r="BT16">
         <v>3</v>
       </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
         <v>1</v>
       </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15">
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="255">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -719,12 +719,24 @@
     <t>Angwa Clinic</t>
   </si>
   <si>
+    <t>Chemahororo Clinic</t>
+  </si>
+  <si>
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chidodo Clinic</t>
+  </si>
+  <si>
     <t>Chiroti Clinic</t>
   </si>
   <si>
+    <t>Chirunya Clinic</t>
+  </si>
+  <si>
+    <t>Chitapo Clinic</t>
+  </si>
+  <si>
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
@@ -734,6 +746,12 @@
     <t>Deve Clinic</t>
   </si>
   <si>
+    <t>Ganye Clinic</t>
+  </si>
+  <si>
+    <t>Gawa Clinic</t>
+  </si>
+  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
@@ -744,6 +762,9 @@
   </si>
   <si>
     <t>Mahuwe Clinic</t>
+  </si>
+  <si>
+    <t>Masomo Clinic</t>
   </si>
   <si>
     <t>Mushumbi RHC</t>
@@ -1601,7 +1622,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY16"/>
+  <dimension ref="A1:BY23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2084,211 +2105,211 @@
         <v>234</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>4</v>
+      </c>
+      <c r="BS3">
+        <v>5</v>
+      </c>
+      <c r="BT3">
         <v>6</v>
       </c>
-      <c r="R3">
+      <c r="BU3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>9</v>
-      </c>
-      <c r="AM3">
-        <v>17</v>
-      </c>
-      <c r="AN3">
-        <v>10</v>
-      </c>
-      <c r="AO3">
-        <v>3</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>9</v>
-      </c>
-      <c r="BS3">
-        <v>17</v>
-      </c>
-      <c r="BT3">
-        <v>10</v>
-      </c>
-      <c r="BU3">
-        <v>6</v>
-      </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -2314,217 +2335,217 @@
         <v>235</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>17</v>
+      </c>
+      <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>9</v>
+      </c>
+      <c r="BS4">
+        <v>17</v>
+      </c>
+      <c r="BT4">
+        <v>10</v>
+      </c>
+      <c r="BU4">
+        <v>6</v>
+      </c>
+      <c r="BV4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>2</v>
-      </c>
-      <c r="BS4">
-        <v>4</v>
-      </c>
-      <c r="BT4">
-        <v>3</v>
-      </c>
-      <c r="BU4">
-        <v>4</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
       <c r="BW4">
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2544,22 +2565,22 @@
         <v>236</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2568,22 +2589,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2640,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2649,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -2736,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -2774,40 +2795,40 @@
         <v>237</v>
       </c>
       <c r="F6">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2816,175 +2837,175 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>2</v>
+      </c>
+      <c r="BS6">
+        <v>4</v>
+      </c>
+      <c r="BT6">
+        <v>3</v>
+      </c>
+      <c r="BU6">
+        <v>4</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
         <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>48</v>
-      </c>
-      <c r="AM6">
-        <v>40</v>
-      </c>
-      <c r="AN6">
-        <v>16</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>91</v>
-      </c>
-      <c r="BS6">
-        <v>32</v>
-      </c>
-      <c r="BT6">
-        <v>11</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -3004,17 +3025,17 @@
         <v>238</v>
       </c>
       <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -3028,17 +3049,17 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
       </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
@@ -3196,16 +3217,16 @@
         <v>0</v>
       </c>
       <c r="BR7">
+        <v>10</v>
+      </c>
+      <c r="BS7">
+        <v>13</v>
+      </c>
+      <c r="BT7">
+        <v>3</v>
+      </c>
+      <c r="BU7">
         <v>4</v>
-      </c>
-      <c r="BS7">
-        <v>12</v>
-      </c>
-      <c r="BT7">
-        <v>7</v>
-      </c>
-      <c r="BU7">
-        <v>2</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -3234,19 +3255,19 @@
         <v>239</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3282,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="W8">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="X8">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="Y8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -3330,115 +3351,115 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>10</v>
+      </c>
+      <c r="BS8">
+        <v>8</v>
+      </c>
+      <c r="BT8">
         <v>2</v>
       </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>52</v>
-      </c>
-      <c r="BS8">
-        <v>62</v>
-      </c>
-      <c r="BT8">
-        <v>46</v>
-      </c>
       <c r="BU8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW8">
         <v>0</v>
@@ -3464,22 +3485,22 @@
         <v>240</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3488,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -3560,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -3569,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -3656,16 +3677,16 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -3694,22 +3715,22 @@
         <v>241</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3718,44 +3739,44 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>118</v>
+      </c>
+      <c r="W10">
+        <v>49</v>
+      </c>
+      <c r="X10">
+        <v>19</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
         <v>0</v>
       </c>
@@ -3790,19 +3811,19 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3886,22 +3907,22 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="BS10">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="BT10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BU10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX10">
         <v>0</v>
@@ -3924,16 +3945,16 @@
         <v>242</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3948,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -4116,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV11">
         <v>0</v>
@@ -4154,214 +4175,214 @@
         <v>243</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
         <v>2</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>15</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>7</v>
+      </c>
+      <c r="BS12">
+        <v>7</v>
+      </c>
+      <c r="BT12">
+        <v>3</v>
+      </c>
+      <c r="BU12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>15</v>
-      </c>
-      <c r="BS12">
-        <v>4</v>
-      </c>
-      <c r="BT12">
-        <v>6</v>
-      </c>
-      <c r="BU12">
-        <v>4</v>
-      </c>
       <c r="BV12">
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -4384,13 +4405,13 @@
         <v>244</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4408,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4432,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -4576,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="BR13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -4614,113 +4635,113 @@
         <v>245</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>52</v>
+      </c>
+      <c r="W14">
+        <v>62</v>
+      </c>
+      <c r="X14">
+        <v>46</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>3</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>8</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
       <c r="AP14">
         <v>0</v>
       </c>
@@ -4806,19 +4827,19 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="BS14">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="BT14">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="BU14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BV14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -4844,16 +4865,16 @@
         <v>246</v>
       </c>
       <c r="F15">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4892,16 +4913,16 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -4916,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -4940,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -4997,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -5036,16 +5057,16 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BS15">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BT15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BV15">
         <v>0</v>
@@ -5074,22 +5095,22 @@
         <v>247</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5098,22 +5119,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -5266,27 +5287,1637 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV16">
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX16">
         <v>0</v>
       </c>
       <c r="BY16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:77">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>3</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>9</v>
+      </c>
+      <c r="BS17">
+        <v>9</v>
+      </c>
+      <c r="BT17">
+        <v>4</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>8</v>
+      </c>
+      <c r="BS18">
+        <v>6</v>
+      </c>
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:77">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>15</v>
+      </c>
+      <c r="BS19">
+        <v>4</v>
+      </c>
+      <c r="BT19">
+        <v>6</v>
+      </c>
+      <c r="BU19">
+        <v>4</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>2</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>3</v>
+      </c>
+      <c r="BT20">
+        <v>3</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:77">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
+      <c r="E21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
+        <v>8</v>
+      </c>
+      <c r="BT21">
+        <v>5</v>
+      </c>
+      <c r="BU21">
+        <v>2</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:77">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22">
+        <v>2025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>78</v>
+      </c>
+      <c r="H22">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>75</v>
+      </c>
+      <c r="W22">
+        <v>77</v>
+      </c>
+      <c r="X22">
+        <v>55</v>
+      </c>
+      <c r="Y22">
+        <v>26</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>66</v>
+      </c>
+      <c r="AM22">
+        <v>74</v>
+      </c>
+      <c r="AN22">
+        <v>51</v>
+      </c>
+      <c r="AO22">
+        <v>24</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>2</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>77</v>
+      </c>
+      <c r="BS22">
+        <v>78</v>
+      </c>
+      <c r="BT22">
+        <v>55</v>
+      </c>
+      <c r="BU22">
+        <v>26</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
+        <v>7</v>
+      </c>
+      <c r="BT23">
+        <v>3</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="261">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -755,28 +755,46 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>Gwanyika Rural Health Centre</t>
+  </si>
+  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
+    <t>Jahana Clinic</t>
+  </si>
+  <si>
     <t>Kapfunde Clinic</t>
   </si>
   <si>
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Mapfungautsi Poly Clinic</t>
+  </si>
+  <si>
     <t>Masomo Clinic</t>
   </si>
   <si>
     <t>Mushumbi RHC</t>
   </si>
   <si>
+    <t>Njelele clinic</t>
+  </si>
+  <si>
     <t>Nyambudzi Clinic</t>
   </si>
   <si>
     <t>Nyamhunga Sengwe Clinic</t>
   </si>
   <si>
+    <t>Nyaradza Clinic</t>
+  </si>
+  <si>
     <t>Seke North Clinic</t>
+  </si>
+  <si>
+    <t>Svisvi Clinic</t>
   </si>
   <si>
     <t>Zvipani Rural Health Centre</t>
@@ -1622,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY23"/>
+  <dimension ref="A1:BY29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4865,16 +4883,16 @@
         <v>246</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4913,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -5057,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV15">
         <v>0</v>
@@ -5095,22 +5113,22 @@
         <v>247</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5119,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -5287,22 +5305,22 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX16">
         <v>0</v>
@@ -5325,19 +5343,19 @@
         <v>248</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5349,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5373,19 +5391,19 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -5424,112 +5442,112 @@
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>8</v>
+      </c>
+      <c r="BS17">
+        <v>10</v>
+      </c>
+      <c r="BT17">
+        <v>8</v>
+      </c>
+      <c r="BU17">
         <v>3</v>
       </c>
-      <c r="AN17">
-        <v>3</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>9</v>
-      </c>
-      <c r="BS17">
-        <v>9</v>
-      </c>
-      <c r="BT17">
-        <v>4</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
       <c r="BV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -5555,22 +5573,22 @@
         <v>249</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5579,22 +5597,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>6</v>
       </c>
       <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -5747,22 +5765,22 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BS18">
         <v>6</v>
       </c>
       <c r="BT18">
+        <v>2</v>
+      </c>
+      <c r="BU18">
+        <v>2</v>
+      </c>
+      <c r="BV18">
         <v>1</v>
       </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
       <c r="BW18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX18">
         <v>0</v>
@@ -5785,46 +5803,46 @@
         <v>250</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>15</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>6</v>
-      </c>
       <c r="Q19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -5884,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="AM19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -5977,22 +5995,22 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BS19">
+        <v>9</v>
+      </c>
+      <c r="BT19">
         <v>4</v>
       </c>
-      <c r="BT19">
-        <v>6</v>
-      </c>
       <c r="BU19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV19">
         <v>0</v>
       </c>
       <c r="BW19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX19">
         <v>0</v>
@@ -6015,17 +6033,17 @@
         <v>251</v>
       </c>
       <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -6039,41 +6057,41 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>8</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>4</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
         <v>0</v>
       </c>
@@ -6207,16 +6225,16 @@
         <v>0</v>
       </c>
       <c r="BR20">
+        <v>8</v>
+      </c>
+      <c r="BS20">
+        <v>7</v>
+      </c>
+      <c r="BT20">
+        <v>4</v>
+      </c>
+      <c r="BU20">
         <v>1</v>
-      </c>
-      <c r="BS20">
-        <v>3</v>
-      </c>
-      <c r="BT20">
-        <v>3</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
       </c>
       <c r="BV20">
         <v>0</v>
@@ -6245,208 +6263,208 @@
         <v>252</v>
       </c>
       <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>8</v>
       </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
         <v>8</v>
       </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
-      </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
+      <c r="BS21">
+        <v>6</v>
+      </c>
+      <c r="BT21">
         <v>1</v>
       </c>
-      <c r="BS21">
-        <v>8</v>
-      </c>
-      <c r="BT21">
-        <v>5</v>
-      </c>
       <c r="BU21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV21">
         <v>0</v>
@@ -6475,22 +6493,22 @@
         <v>253</v>
       </c>
       <c r="F22">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -6499,22 +6517,22 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -6523,16 +6541,16 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -6547,142 +6565,142 @@
         <v>0</v>
       </c>
       <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>15</v>
+      </c>
+      <c r="BS22">
+        <v>4</v>
+      </c>
+      <c r="BT22">
+        <v>6</v>
+      </c>
+      <c r="BU22">
+        <v>4</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
         <v>2</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>66</v>
-      </c>
-      <c r="AM22">
-        <v>74</v>
-      </c>
-      <c r="AN22">
-        <v>51</v>
-      </c>
-      <c r="AO22">
-        <v>24</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>2</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
-        <v>0</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
-      </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
-      <c r="BO22">
-        <v>0</v>
-      </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22">
-        <v>77</v>
-      </c>
-      <c r="BS22">
-        <v>78</v>
-      </c>
-      <c r="BT22">
-        <v>55</v>
-      </c>
-      <c r="BU22">
-        <v>26</v>
-      </c>
-      <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
-        <v>0</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -6705,219 +6723,1599 @@
         <v>254</v>
       </c>
       <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>9</v>
+      </c>
+      <c r="W23">
+        <v>9</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>9</v>
+      </c>
+      <c r="BS23">
+        <v>9</v>
+      </c>
+      <c r="BT23">
+        <v>5</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>2</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:77">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+      <c r="E24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
+        <v>3</v>
+      </c>
+      <c r="BT24">
+        <v>3</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
+      </c>
+      <c r="E25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>8</v>
+      </c>
+      <c r="BT25">
+        <v>5</v>
+      </c>
+      <c r="BU25">
+        <v>2</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:77">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26">
+        <v>2025</v>
+      </c>
+      <c r="E26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>3</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:77">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
+      </c>
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>55</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>75</v>
+      </c>
+      <c r="W27">
+        <v>77</v>
+      </c>
+      <c r="X27">
+        <v>55</v>
+      </c>
+      <c r="Y27">
+        <v>26</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>66</v>
+      </c>
+      <c r="AM27">
+        <v>74</v>
+      </c>
+      <c r="AN27">
+        <v>51</v>
+      </c>
+      <c r="AO27">
+        <v>24</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>2</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>77</v>
+      </c>
+      <c r="BS27">
+        <v>78</v>
+      </c>
+      <c r="BT27">
+        <v>55</v>
+      </c>
+      <c r="BU27">
+        <v>26</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:77">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
+      </c>
+      <c r="E28" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <v>3</v>
+      </c>
+      <c r="BT28">
+        <v>4</v>
+      </c>
+      <c r="BU28">
+        <v>1</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:77">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="H23">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="O29">
         <v>7</v>
       </c>
-      <c r="P23">
+      <c r="P29">
         <v>3</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>0</v>
-      </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
         <v>1</v>
       </c>
-      <c r="BS23">
+      <c r="BS29">
         <v>7</v>
       </c>
-      <c r="BT23">
+      <c r="BT29">
         <v>3</v>
       </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
-      <c r="BV23">
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
         <v>1</v>
       </c>
-      <c r="BW23">
-        <v>0</v>
-      </c>
-      <c r="BX23">
-        <v>0</v>
-      </c>
-      <c r="BY23">
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="274">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -719,6 +719,9 @@
     <t>Angwa Clinic</t>
   </si>
   <si>
+    <t>Arcadia Rural Council Clinic</t>
+  </si>
+  <si>
     <t>Chemahororo Clinic</t>
   </si>
   <si>
@@ -740,12 +743,18 @@
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Chitungwiza Central Hospital</t>
+  </si>
+  <si>
     <t>Citi Med</t>
   </si>
   <si>
     <t>Deve Clinic</t>
   </si>
   <si>
+    <t>Dimbiti Rural Health Centre</t>
+  </si>
+  <si>
     <t>Ganye Clinic</t>
   </si>
   <si>
@@ -761,28 +770,58 @@
     <t>Hurungwe RH</t>
   </si>
   <si>
+    <t>Igava</t>
+  </si>
+  <si>
     <t>Jahana Clinic</t>
   </si>
   <si>
+    <t>Kana Mission Hospital</t>
+  </si>
+  <si>
     <t>Kapfunde Clinic</t>
   </si>
   <si>
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Manoti Clinic</t>
+  </si>
+  <si>
     <t>Mapfungautsi Poly Clinic</t>
   </si>
   <si>
+    <t>Masikana Council Clinic</t>
+  </si>
+  <si>
     <t>Masomo Clinic</t>
   </si>
   <si>
+    <t>Mateme SDA Clinic</t>
+  </si>
+  <si>
+    <t>Mateta Rural Health Centre</t>
+  </si>
+  <si>
+    <t>Mkoka Clinic</t>
+  </si>
+  <si>
     <t>Mushumbi RHC</t>
   </si>
   <si>
+    <t>Ndhlalambi RDC</t>
+  </si>
+  <si>
     <t>Njelele clinic</t>
   </si>
   <si>
+    <t>Nyaje Rural Health Centre</t>
+  </si>
+  <si>
     <t>Nyambudzi Clinic</t>
+  </si>
+  <si>
+    <t>Nyamhunga Clinic</t>
   </si>
   <si>
     <t>Nyamhunga Sengwe Clinic</t>
@@ -1640,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY29"/>
+  <dimension ref="A1:BY42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2123,16 +2162,16 @@
         <v>234</v>
       </c>
       <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2147,38 +2186,38 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
@@ -2315,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="BR3">
+        <v>16</v>
+      </c>
+      <c r="BS3">
+        <v>10</v>
+      </c>
+      <c r="BT3">
         <v>4</v>
       </c>
-      <c r="BS3">
-        <v>5</v>
-      </c>
-      <c r="BT3">
-        <v>6</v>
-      </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -2353,211 +2392,211 @@
         <v>235</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>9</v>
-      </c>
-      <c r="O4">
-        <v>17</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>4</v>
+      </c>
+      <c r="BS4">
+        <v>5</v>
+      </c>
+      <c r="BT4">
         <v>6</v>
       </c>
-      <c r="R4">
+      <c r="BU4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>9</v>
-      </c>
-      <c r="AM4">
-        <v>17</v>
-      </c>
-      <c r="AN4">
-        <v>10</v>
-      </c>
-      <c r="AO4">
-        <v>3</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>9</v>
-      </c>
-      <c r="BS4">
-        <v>17</v>
-      </c>
-      <c r="BT4">
-        <v>10</v>
-      </c>
-      <c r="BU4">
-        <v>6</v>
-      </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -2583,20 +2622,20 @@
         <v>236</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -2607,20 +2646,20 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -2679,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -2775,19 +2814,19 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2813,16 +2852,16 @@
         <v>237</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2831,22 +2870,22 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
       <c r="Q6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2855,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -3005,16 +3044,16 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -3023,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -3043,10 +3082,10 @@
         <v>238</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -3061,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -3085,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -3235,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BS7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BT7">
         <v>3</v>
@@ -3253,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -3276,13 +3315,13 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3297,16 +3336,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3321,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -3369,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -3468,13 +3507,13 @@
         <v>10</v>
       </c>
       <c r="BS8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BT8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV8">
         <v>0</v>
@@ -3506,19 +3545,19 @@
         <v>10</v>
       </c>
       <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3527,40 +3566,40 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>10</v>
       </c>
-      <c r="O9">
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
         <v>8</v>
       </c>
-      <c r="P9">
-        <v>11</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3602,109 +3641,109 @@
         <v>2</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>10</v>
+      </c>
+      <c r="BS9">
+        <v>8</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
         <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>7</v>
-      </c>
-      <c r="BS9">
-        <v>6</v>
-      </c>
-      <c r="BT9">
-        <v>8</v>
-      </c>
-      <c r="BU9">
-        <v>3</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -3733,23 +3772,23 @@
         <v>241</v>
       </c>
       <c r="F10">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
@@ -3757,22 +3796,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -3781,67 +3820,67 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>1</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>48</v>
-      </c>
-      <c r="AM10">
-        <v>40</v>
-      </c>
-      <c r="AN10">
-        <v>16</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3925,16 +3964,16 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="BS10">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="BT10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BU10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV10">
         <v>0</v>
@@ -3963,17 +4002,17 @@
         <v>242</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
         <v>12</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -3987,41 +4026,41 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>45</v>
+      </c>
+      <c r="W11">
+        <v>55</v>
+      </c>
+      <c r="X11">
+        <v>22</v>
+      </c>
+      <c r="Y11">
         <v>12</v>
       </c>
-      <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
@@ -4059,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -4116,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -4155,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="BS11">
+        <v>55</v>
+      </c>
+      <c r="BT11">
+        <v>22</v>
+      </c>
+      <c r="BU11">
         <v>12</v>
-      </c>
-      <c r="BT11">
-        <v>7</v>
-      </c>
-      <c r="BU11">
-        <v>2</v>
       </c>
       <c r="BV11">
         <v>0</v>
@@ -4193,19 +4232,19 @@
         <v>243</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4241,19 +4280,19 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -4289,19 +4328,19 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -4385,16 +4424,16 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="BS12">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="BT12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BU12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV12">
         <v>0</v>
@@ -4423,41 +4462,41 @@
         <v>244</v>
       </c>
       <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
@@ -4471,160 +4510,160 @@
         <v>0</v>
       </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>4</v>
+      </c>
+      <c r="BS13">
+        <v>12</v>
+      </c>
+      <c r="BT13">
+        <v>7</v>
+      </c>
+      <c r="BU13">
         <v>2</v>
-      </c>
-      <c r="W13">
-        <v>4</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>2</v>
-      </c>
-      <c r="BS13">
-        <v>4</v>
-      </c>
-      <c r="BT13">
-        <v>2</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
       </c>
       <c r="BV13">
         <v>0</v>
@@ -4653,211 +4692,211 @@
         <v>245</v>
       </c>
       <c r="F14">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>52</v>
-      </c>
-      <c r="W14">
-        <v>62</v>
-      </c>
       <c r="X14">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>7</v>
+      </c>
+      <c r="BS14">
         <v>3</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>3</v>
-      </c>
-      <c r="AM14">
-        <v>3</v>
-      </c>
-      <c r="AN14">
-        <v>3</v>
-      </c>
-      <c r="AO14">
-        <v>2</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>52</v>
-      </c>
-      <c r="BS14">
-        <v>62</v>
-      </c>
       <c r="BT14">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="BU14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BV14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -4883,10 +4922,10 @@
         <v>246</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -4931,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <v>3</v>
@@ -5075,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BS15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BT15">
         <v>3</v>
@@ -5113,13 +5152,13 @@
         <v>247</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5161,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -5305,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU16">
         <v>0</v>
@@ -5343,20 +5382,20 @@
         <v>248</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
@@ -5391,20 +5430,20 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="W17">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="X17">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="Y17">
+        <v>13</v>
+      </c>
+      <c r="Z17">
         <v>3</v>
       </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
       <c r="AA17">
         <v>0</v>
       </c>
@@ -5439,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>2</v>
@@ -5535,19 +5574,19 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="BS17">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="BT17">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="BU17">
+        <v>13</v>
+      </c>
+      <c r="BV17">
         <v>3</v>
-      </c>
-      <c r="BV17">
-        <v>1</v>
       </c>
       <c r="BW17">
         <v>0</v>
@@ -5573,214 +5612,214 @@
         <v>249</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <v>3</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
         <v>3</v>
       </c>
-      <c r="O18">
-        <v>6</v>
-      </c>
-      <c r="P18">
+      <c r="Y18">
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
         <v>2</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
+      <c r="BS18">
+        <v>4</v>
+      </c>
+      <c r="BT18">
         <v>3</v>
-      </c>
-      <c r="BS18">
-        <v>6</v>
-      </c>
-      <c r="BT18">
-        <v>2</v>
       </c>
       <c r="BU18">
         <v>2</v>
       </c>
       <c r="BV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX18">
         <v>0</v>
@@ -5803,13 +5842,13 @@
         <v>250</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5827,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -5899,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -5995,13 +6034,13 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BT19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -6033,208 +6072,208 @@
         <v>251</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>11</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>8</v>
-      </c>
-      <c r="W20">
-        <v>7</v>
-      </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
       <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>18</v>
+      </c>
+      <c r="BS20">
+        <v>11</v>
+      </c>
+      <c r="BT20">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>8</v>
-      </c>
-      <c r="BS20">
-        <v>7</v>
-      </c>
-      <c r="BT20">
-        <v>4</v>
-      </c>
       <c r="BU20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20">
         <v>0</v>
@@ -6266,17 +6305,17 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
@@ -6287,44 +6326,44 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>8</v>
       </c>
-      <c r="O21">
-        <v>6</v>
-      </c>
-      <c r="P21">
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
       <c r="AA21">
         <v>0</v>
       </c>
@@ -6359,16 +6398,16 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -6458,16 +6497,16 @@
         <v>8</v>
       </c>
       <c r="BS21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BT21">
+        <v>8</v>
+      </c>
+      <c r="BU21">
+        <v>3</v>
+      </c>
+      <c r="BV21">
         <v>1</v>
-      </c>
-      <c r="BU21">
-        <v>0</v>
-      </c>
-      <c r="BV21">
-        <v>0</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -6493,64 +6532,64 @@
         <v>253</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>17</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
         <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>15</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -6592,14 +6631,14 @@
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>3</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
+      <c r="AO22">
         <v>1</v>
       </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
         <v>0</v>
       </c>
@@ -6685,22 +6724,22 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BS22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BT22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BU22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BV22">
         <v>0</v>
       </c>
       <c r="BW22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -6723,23 +6762,23 @@
         <v>254</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -6747,22 +6786,22 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -6771,166 +6810,166 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>3</v>
+      </c>
+      <c r="BS23">
+        <v>6</v>
+      </c>
+      <c r="BT23">
         <v>2</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>0</v>
-      </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23">
-        <v>9</v>
-      </c>
-      <c r="BS23">
-        <v>9</v>
-      </c>
-      <c r="BT23">
-        <v>5</v>
-      </c>
       <c r="BU23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
         <v>2</v>
-      </c>
-      <c r="BW23">
-        <v>0</v>
       </c>
       <c r="BX23">
         <v>0</v>
@@ -6953,110 +6992,110 @@
         <v>255</v>
       </c>
       <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="AM24">
         <v>3</v>
       </c>
-      <c r="H24">
+      <c r="AN24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
       <c r="AO24">
         <v>0</v>
       </c>
@@ -7145,13 +7184,13 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BS24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BT24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU24">
         <v>0</v>
@@ -7183,113 +7222,113 @@
         <v>256</v>
       </c>
       <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>9</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="AO25">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>8</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
       <c r="AP25">
         <v>0</v>
       </c>
@@ -7375,16 +7414,16 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BS25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -7413,13 +7452,13 @@
         <v>257</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
         <v>4</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7461,13 +7500,13 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
         <v>4</v>
-      </c>
-      <c r="X26">
-        <v>3</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -7605,13 +7644,13 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BS26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BT26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU26">
         <v>1</v>
@@ -7643,16 +7682,16 @@
         <v>258</v>
       </c>
       <c r="F27">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -7691,16 +7730,16 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="W27">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -7715,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -7739,16 +7778,16 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -7796,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -7835,16 +7874,16 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="BS27">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BT27">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BU27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -7873,38 +7912,38 @@
         <v>259</v>
       </c>
       <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>0</v>
       </c>
@@ -7921,160 +7960,160 @@
         <v>0</v>
       </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>8</v>
+      </c>
+      <c r="BS28">
+        <v>6</v>
+      </c>
+      <c r="BT28">
         <v>1</v>
       </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28">
-        <v>4</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
-      <c r="BP28">
-        <v>0</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>1</v>
-      </c>
-      <c r="BS28">
-        <v>3</v>
-      </c>
-      <c r="BT28">
-        <v>4</v>
-      </c>
       <c r="BU28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -8103,112 +8142,112 @@
         <v>260</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
         <v>1</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="AM29">
         <v>1</v>
       </c>
-      <c r="O29">
-        <v>7</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="AN29">
         <v>1</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
       <c r="AO29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -8295,27 +8334,3017 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BS29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT29">
         <v>3</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:77">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <v>1</v>
       </c>
-      <c r="BW29">
-        <v>0</v>
-      </c>
-      <c r="BX29">
-        <v>0</v>
-      </c>
-      <c r="BY29">
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>8</v>
+      </c>
+      <c r="BS30">
+        <v>7</v>
+      </c>
+      <c r="BT30">
+        <v>4</v>
+      </c>
+      <c r="BU30">
+        <v>3</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>4</v>
+      </c>
+      <c r="BS31">
+        <v>3</v>
+      </c>
+      <c r="BT31">
+        <v>2</v>
+      </c>
+      <c r="BU31">
+        <v>1</v>
+      </c>
+      <c r="BV31">
+        <v>0</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
+        <v>0</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:77">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
+      </c>
+      <c r="E32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>15</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>15</v>
+      </c>
+      <c r="BS32">
+        <v>4</v>
+      </c>
+      <c r="BT32">
+        <v>6</v>
+      </c>
+      <c r="BU32">
+        <v>4</v>
+      </c>
+      <c r="BV32">
+        <v>0</v>
+      </c>
+      <c r="BW32">
+        <v>2</v>
+      </c>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BY32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:77">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
+      </c>
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:77">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
+      </c>
+      <c r="E34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>9</v>
+      </c>
+      <c r="W34">
+        <v>9</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>9</v>
+      </c>
+      <c r="BS34">
+        <v>9</v>
+      </c>
+      <c r="BT34">
+        <v>5</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>2</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:77">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
+      </c>
+      <c r="E35" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+      <c r="BR35">
+        <v>2</v>
+      </c>
+      <c r="BS35">
+        <v>2</v>
+      </c>
+      <c r="BT35">
+        <v>1</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:77">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>1</v>
+      </c>
+      <c r="BS36">
+        <v>3</v>
+      </c>
+      <c r="BT36">
+        <v>3</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:77">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>2</v>
+      </c>
+      <c r="BS37">
+        <v>2</v>
+      </c>
+      <c r="BT37">
+        <v>2</v>
+      </c>
+      <c r="BU37">
+        <v>1</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:77">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>1</v>
+      </c>
+      <c r="BS38">
+        <v>8</v>
+      </c>
+      <c r="BT38">
+        <v>5</v>
+      </c>
+      <c r="BU38">
+        <v>2</v>
+      </c>
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:77">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>1</v>
+      </c>
+      <c r="BS39">
+        <v>1</v>
+      </c>
+      <c r="BT39">
+        <v>3</v>
+      </c>
+      <c r="BU39">
+        <v>1</v>
+      </c>
+      <c r="BV39">
+        <v>0</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BY39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:77">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40">
+        <v>77</v>
+      </c>
+      <c r="G40">
+        <v>78</v>
+      </c>
+      <c r="H40">
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>75</v>
+      </c>
+      <c r="W40">
+        <v>77</v>
+      </c>
+      <c r="X40">
+        <v>55</v>
+      </c>
+      <c r="Y40">
+        <v>26</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>66</v>
+      </c>
+      <c r="AM40">
+        <v>74</v>
+      </c>
+      <c r="AN40">
+        <v>51</v>
+      </c>
+      <c r="AO40">
+        <v>24</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>2</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>77</v>
+      </c>
+      <c r="BS40">
+        <v>78</v>
+      </c>
+      <c r="BT40">
+        <v>55</v>
+      </c>
+      <c r="BU40">
+        <v>26</v>
+      </c>
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+      <c r="BY40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:77">
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>1</v>
+      </c>
+      <c r="BS41">
+        <v>3</v>
+      </c>
+      <c r="BT41">
+        <v>4</v>
+      </c>
+      <c r="BU41">
+        <v>1</v>
+      </c>
+      <c r="BV41">
+        <v>0</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+      <c r="BY41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:77">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>1</v>
+      </c>
+      <c r="BS42">
+        <v>7</v>
+      </c>
+      <c r="BT42">
+        <v>3</v>
+      </c>
+      <c r="BU42">
+        <v>0</v>
+      </c>
+      <c r="BV42">
+        <v>1</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+      <c r="BY42">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="297">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -752,6 +752,9 @@
     <t>Chitungwiza Central Hospital</t>
   </si>
   <si>
+    <t>Chivero</t>
+  </si>
+  <si>
     <t>Citi Med</t>
   </si>
   <si>
@@ -773,6 +776,9 @@
     <t>Gawa Clinic</t>
   </si>
   <si>
+    <t>Glenluce</t>
+  </si>
+  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
@@ -824,9 +830,15 @@
     <t>Mbuya nehanda</t>
   </si>
   <si>
+    <t>Mhondoro North</t>
+  </si>
+  <si>
     <t>Mkoka Clinic</t>
   </si>
   <si>
+    <t>Monera</t>
+  </si>
+  <si>
     <t>Msengezi</t>
   </si>
   <si>
@@ -848,6 +860,9 @@
     <t>Njelele clinic</t>
   </si>
   <si>
+    <t>Norton hosp</t>
+  </si>
+  <si>
     <t>Nyaje Rural Health Centre</t>
   </si>
   <si>
@@ -879,6 +894,9 @@
   </si>
   <si>
     <t>Svisvi Clinic</t>
+  </si>
+  <si>
+    <t>Tasunungurwa</t>
   </si>
   <si>
     <t>Tshelanyemba Hospital</t>
@@ -1730,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY59"/>
+  <dimension ref="A1:BY65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4743,16 +4761,16 @@
         <v>245</v>
       </c>
       <c r="F14">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4791,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="W14">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="X14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -4839,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="AM14">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AN14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
         <v>1</v>
@@ -4935,19 +4953,19 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="BS14">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="BT14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BU14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW14">
         <v>0</v>
@@ -4973,19 +4991,19 @@
         <v>246</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -5021,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -5069,19 +5087,19 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="AM15">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -5165,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="BT15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BU15">
         <v>0</v>
@@ -5203,109 +5221,109 @@
         <v>247</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>7</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>12</v>
-      </c>
-      <c r="P16">
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>7</v>
       </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
       <c r="AM16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -5395,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BS16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BT16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BU16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV16">
         <v>0</v>
@@ -5433,40 +5451,40 @@
         <v>248</v>
       </c>
       <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5481,160 +5499,160 @@
         <v>0</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>4</v>
+      </c>
+      <c r="BS17">
+        <v>12</v>
+      </c>
+      <c r="BT17">
         <v>7</v>
       </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="X17">
-        <v>4</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>7</v>
-      </c>
-      <c r="BS17">
-        <v>3</v>
-      </c>
-      <c r="BT17">
-        <v>4</v>
-      </c>
       <c r="BU17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV17">
         <v>0</v>
@@ -5663,16 +5681,16 @@
         <v>249</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5711,16 +5729,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -5759,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -5855,16 +5873,16 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BS18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV18">
         <v>0</v>
@@ -5893,16 +5911,16 @@
         <v>250</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5941,16 +5959,16 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -5989,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -6085,16 +6103,16 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BS19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BU19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV19">
         <v>0</v>
@@ -6123,208 +6141,208 @@
         <v>251</v>
       </c>
       <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>7</v>
+      </c>
+      <c r="BS20">
+        <v>7</v>
+      </c>
+      <c r="BT20">
+        <v>3</v>
+      </c>
+      <c r="BU20">
         <v>2</v>
-      </c>
-      <c r="W20">
-        <v>4</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
-        <v>0</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>2</v>
-      </c>
-      <c r="BS20">
-        <v>4</v>
-      </c>
-      <c r="BT20">
-        <v>2</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
       </c>
       <c r="BV20">
         <v>0</v>
@@ -6353,19 +6371,19 @@
         <v>252</v>
       </c>
       <c r="F21">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -6401,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="X21">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -6449,115 +6467,115 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
         <v>2</v>
       </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>0</v>
-      </c>
-      <c r="BI21">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
-      </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
-        <v>52</v>
-      </c>
       <c r="BS21">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="BT21">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="BU21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BV21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW21">
         <v>0</v>
@@ -6583,20 +6601,20 @@
         <v>253</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -6631,20 +6649,20 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="W22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X22">
         <v>3</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AA22">
         <v>0</v>
       </c>
@@ -6682,16 +6700,16 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -6775,19 +6793,19 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="BS22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BT22">
         <v>3</v>
       </c>
       <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
         <v>2</v>
-      </c>
-      <c r="BV22">
-        <v>0</v>
       </c>
       <c r="BW22">
         <v>0</v>
@@ -6813,19 +6831,19 @@
         <v>254</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -6861,19 +6879,19 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -6909,16 +6927,16 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -7005,19 +7023,19 @@
         <v>0</v>
       </c>
       <c r="BR23">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="BT23">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BU23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BV23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW23">
         <v>0</v>
@@ -7043,16 +7061,16 @@
         <v>255</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7091,16 +7109,16 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -7235,16 +7253,16 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BS24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BT24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV24">
         <v>0</v>
@@ -7273,19 +7291,19 @@
         <v>256</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -7321,19 +7339,19 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -7369,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -7465,19 +7483,19 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BS25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BT25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BU25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW25">
         <v>0</v>
@@ -7503,16 +7521,16 @@
         <v>257</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -7551,16 +7569,16 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -7599,16 +7617,16 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -7695,16 +7713,16 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BT26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BU26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV26">
         <v>0</v>
@@ -7733,214 +7751,214 @@
         <v>258</v>
       </c>
       <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="AN27">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="AO27">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>8</v>
+      </c>
+      <c r="BS27">
+        <v>10</v>
+      </c>
+      <c r="BT27">
+        <v>8</v>
+      </c>
+      <c r="BU27">
         <v>3</v>
       </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>0</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27">
-        <v>0</v>
-      </c>
-      <c r="BP27">
-        <v>0</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27">
-        <v>3</v>
-      </c>
-      <c r="BS27">
-        <v>6</v>
-      </c>
-      <c r="BT27">
-        <v>2</v>
-      </c>
-      <c r="BU27">
-        <v>2</v>
-      </c>
       <c r="BV27">
         <v>1</v>
       </c>
       <c r="BW27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX27">
         <v>0</v>
@@ -7963,16 +7981,16 @@
         <v>259</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8011,16 +8029,16 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -8059,13 +8077,13 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>3</v>
       </c>
       <c r="AN28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28">
         <v>1</v>
@@ -8155,16 +8173,16 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BS28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BT28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BU28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -8193,22 +8211,22 @@
         <v>260</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -8217,22 +8235,22 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -8289,118 +8307,118 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
         <v>3</v>
       </c>
-      <c r="AN29">
-        <v>3</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
-      <c r="BP29">
-        <v>0</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29">
-        <v>9</v>
-      </c>
       <c r="BS29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BT29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX29">
         <v>0</v>
@@ -8423,109 +8441,109 @@
         <v>261</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
         <v>3</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>10</v>
-      </c>
-      <c r="W30">
-        <v>9</v>
-      </c>
       <c r="X30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>7</v>
+      </c>
+      <c r="AM30">
         <v>3</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>2</v>
-      </c>
       <c r="AN30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -8615,16 +8633,16 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BT30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BU30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV30">
         <v>0</v>
@@ -8653,16 +8671,16 @@
         <v>262</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8677,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -8701,16 +8719,16 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -8749,13 +8767,13 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -8845,16 +8863,16 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BT31">
         <v>4</v>
       </c>
       <c r="BU31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -8883,208 +8901,208 @@
         <v>263</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32">
+        <v>9</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
         <v>2</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>24</v>
-      </c>
-      <c r="W32">
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>10</v>
+      </c>
+      <c r="BS32">
+        <v>9</v>
+      </c>
+      <c r="BT32">
         <v>6</v>
       </c>
-      <c r="X32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>4</v>
-      </c>
-      <c r="AN32">
+      <c r="BU32">
         <v>3</v>
-      </c>
-      <c r="AO32">
-        <v>2</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-      <c r="BK32">
-        <v>0</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
-      <c r="BO32">
-        <v>0</v>
-      </c>
-      <c r="BP32">
-        <v>0</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32">
-        <v>24</v>
-      </c>
-      <c r="BS32">
-        <v>6</v>
-      </c>
-      <c r="BT32">
-        <v>5</v>
-      </c>
-      <c r="BU32">
-        <v>2</v>
       </c>
       <c r="BV32">
         <v>0</v>
@@ -9113,16 +9131,16 @@
         <v>264</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -9161,16 +9179,16 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -9305,16 +9323,16 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BT33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV33">
         <v>0</v>
@@ -9343,16 +9361,16 @@
         <v>265</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -9367,40 +9385,40 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>24</v>
+      </c>
+      <c r="W34">
         <v>6</v>
       </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
       <c r="X34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -9442,13 +9460,13 @@
         <v>0</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -9535,16 +9553,16 @@
         <v>0</v>
       </c>
       <c r="BR34">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BS34">
         <v>6</v>
       </c>
       <c r="BT34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BU34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV34">
         <v>0</v>
@@ -9573,16 +9591,16 @@
         <v>266</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -9621,16 +9639,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -9669,16 +9687,16 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -9765,16 +9783,16 @@
         <v>0</v>
       </c>
       <c r="BR35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BS35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV35">
         <v>0</v>
@@ -9806,13 +9824,13 @@
         <v>8</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -9827,13 +9845,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9851,16 +9869,16 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -9902,13 +9920,13 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>0</v>
@@ -9998,13 +10016,13 @@
         <v>8</v>
       </c>
       <c r="BS36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV36">
         <v>0</v>
@@ -10033,208 +10051,208 @@
         <v>268</v>
       </c>
       <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>2</v>
       </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
         <v>2</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>2</v>
       </c>
-      <c r="W37">
-        <v>5</v>
-      </c>
-      <c r="X37">
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>6</v>
+      </c>
+      <c r="BS37">
+        <v>6</v>
+      </c>
+      <c r="BT37">
+        <v>3</v>
+      </c>
+      <c r="BU37">
         <v>2</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>2</v>
-      </c>
-      <c r="AM37">
-        <v>5</v>
-      </c>
-      <c r="AN37">
-        <v>2</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>0</v>
-      </c>
-      <c r="BF37">
-        <v>0</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>0</v>
-      </c>
-      <c r="BK37">
-        <v>0</v>
-      </c>
-      <c r="BL37">
-        <v>0</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
-      </c>
-      <c r="BN37">
-        <v>0</v>
-      </c>
-      <c r="BO37">
-        <v>0</v>
-      </c>
-      <c r="BP37">
-        <v>0</v>
-      </c>
-      <c r="BQ37">
-        <v>0</v>
-      </c>
-      <c r="BR37">
-        <v>2</v>
-      </c>
-      <c r="BS37">
-        <v>5</v>
-      </c>
-      <c r="BT37">
-        <v>2</v>
-      </c>
-      <c r="BU37">
-        <v>0</v>
       </c>
       <c r="BV37">
         <v>0</v>
@@ -10263,208 +10281,208 @@
         <v>269</v>
       </c>
       <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
         <v>4</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
         <v>2</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>8</v>
+      </c>
+      <c r="BS38">
+        <v>7</v>
+      </c>
+      <c r="BT38">
         <v>4</v>
       </c>
-      <c r="W38">
+      <c r="BU38">
         <v>3</v>
-      </c>
-      <c r="X38">
-        <v>2</v>
-      </c>
-      <c r="Y38">
-        <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38">
-        <v>0</v>
-      </c>
-      <c r="BF38">
-        <v>0</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
-      </c>
-      <c r="BK38">
-        <v>0</v>
-      </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BM38">
-        <v>0</v>
-      </c>
-      <c r="BN38">
-        <v>0</v>
-      </c>
-      <c r="BO38">
-        <v>0</v>
-      </c>
-      <c r="BP38">
-        <v>0</v>
-      </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
-      <c r="BR38">
-        <v>4</v>
-      </c>
-      <c r="BS38">
-        <v>3</v>
-      </c>
-      <c r="BT38">
-        <v>2</v>
-      </c>
-      <c r="BU38">
-        <v>1</v>
       </c>
       <c r="BV38">
         <v>0</v>
@@ -10499,13 +10517,13 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -10547,13 +10565,13 @@
         <v>5</v>
       </c>
       <c r="X39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -10595,13 +10613,13 @@
         <v>5</v>
       </c>
       <c r="AN39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO39">
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -10691,13 +10709,13 @@
         <v>5</v>
       </c>
       <c r="BT39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU39">
         <v>0</v>
       </c>
       <c r="BV39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW39">
         <v>0</v>
@@ -10723,13 +10741,13 @@
         <v>271</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -10744,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -10771,13 +10789,13 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -10792,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -10819,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -10840,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -10915,13 +10933,13 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BS40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU40">
         <v>0</v>
@@ -10936,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:77">
@@ -10953,205 +10971,205 @@
         <v>272</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>4</v>
       </c>
-      <c r="H41">
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
         <v>4</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>7</v>
-      </c>
-      <c r="W41">
-        <v>4</v>
-      </c>
-      <c r="X41">
-        <v>4</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>7</v>
-      </c>
-      <c r="AM41">
-        <v>4</v>
-      </c>
-      <c r="AN41">
-        <v>4</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41">
-        <v>0</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>0</v>
-      </c>
-      <c r="BK41">
-        <v>0</v>
-      </c>
-      <c r="BL41">
-        <v>0</v>
-      </c>
-      <c r="BM41">
-        <v>0</v>
-      </c>
-      <c r="BN41">
-        <v>0</v>
-      </c>
-      <c r="BO41">
-        <v>0</v>
-      </c>
-      <c r="BP41">
-        <v>0</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41">
-        <v>7</v>
-      </c>
       <c r="BS41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU41">
         <v>1</v>
@@ -11183,214 +11201,214 @@
         <v>273</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="H42">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>17</v>
+      </c>
+      <c r="W42">
+        <v>7</v>
+      </c>
+      <c r="X42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
         <v>6</v>
       </c>
-      <c r="I42">
+      <c r="AN42">
         <v>4</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>15</v>
-      </c>
-      <c r="O42">
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>17</v>
+      </c>
+      <c r="BS42">
+        <v>7</v>
+      </c>
+      <c r="BT42">
         <v>4</v>
       </c>
-      <c r="P42">
-        <v>6</v>
-      </c>
-      <c r="Q42">
-        <v>4</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42">
-        <v>0</v>
-      </c>
-      <c r="BF42">
-        <v>0</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>0</v>
-      </c>
-      <c r="BK42">
-        <v>0</v>
-      </c>
-      <c r="BL42">
-        <v>0</v>
-      </c>
-      <c r="BM42">
-        <v>0</v>
-      </c>
-      <c r="BN42">
-        <v>0</v>
-      </c>
-      <c r="BO42">
-        <v>0</v>
-      </c>
-      <c r="BP42">
-        <v>0</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42">
-        <v>15</v>
-      </c>
-      <c r="BS42">
-        <v>4</v>
-      </c>
-      <c r="BT42">
-        <v>6</v>
-      </c>
       <c r="BU42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX42">
         <v>0</v>
@@ -11413,19 +11431,19 @@
         <v>274</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -11461,19 +11479,19 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -11509,19 +11527,19 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO43">
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -11605,19 +11623,19 @@
         <v>0</v>
       </c>
       <c r="BR43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU43">
         <v>0</v>
       </c>
       <c r="BV43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW43">
         <v>0</v>
@@ -11652,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -11700,7 +11718,7 @@
         <v>3</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -11739,13 +11757,13 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO44">
         <v>0</v>
@@ -11835,13 +11853,13 @@
         <v>0</v>
       </c>
       <c r="BR44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU44">
         <v>0</v>
@@ -11873,19 +11891,19 @@
         <v>276</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -11921,19 +11939,19 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -11969,16 +11987,16 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP45">
         <v>0</v>
@@ -12065,19 +12083,19 @@
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BS45">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BT45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW45">
         <v>0</v>
@@ -12103,23 +12121,23 @@
         <v>277</v>
       </c>
       <c r="F46">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
         <v>6</v>
       </c>
-      <c r="G46">
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>2</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
         <v>0</v>
       </c>
@@ -12127,22 +12145,22 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -12151,166 +12169,166 @@
         <v>0</v>
       </c>
       <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>15</v>
+      </c>
+      <c r="BS46">
+        <v>4</v>
+      </c>
+      <c r="BT46">
         <v>6</v>
       </c>
-      <c r="W46">
+      <c r="BU46">
+        <v>4</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
         <v>2</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <v>0</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46">
-        <v>2</v>
-      </c>
-      <c r="BS46">
-        <v>2</v>
-      </c>
-      <c r="BT46">
-        <v>1</v>
-      </c>
-      <c r="BU46">
-        <v>0</v>
-      </c>
-      <c r="BV46">
-        <v>0</v>
-      </c>
-      <c r="BW46">
-        <v>0</v>
       </c>
       <c r="BX46">
         <v>0</v>
@@ -12333,13 +12351,13 @@
         <v>278</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -12357,13 +12375,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -12381,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -12429,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -12525,13 +12543,13 @@
         <v>0</v>
       </c>
       <c r="BR47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BS47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU47">
         <v>0</v>
@@ -12563,64 +12581,64 @@
         <v>279</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
         <v>4</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>2</v>
-      </c>
-      <c r="W48">
-        <v>2</v>
-      </c>
       <c r="X48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -12662,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="AM48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48">
         <v>1</v>
@@ -12755,16 +12773,16 @@
         <v>0</v>
       </c>
       <c r="BR48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV48">
         <v>0</v>
@@ -12793,20 +12811,20 @@
         <v>280</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>5</v>
       </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>0</v>
       </c>
@@ -12817,44 +12835,44 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>9</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+      <c r="X49">
         <v>5</v>
       </c>
-      <c r="Q49">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
         <v>2</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
       <c r="AA49">
         <v>0</v>
       </c>
@@ -12985,19 +13003,19 @@
         <v>0</v>
       </c>
       <c r="BR49">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BS49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT49">
         <v>5</v>
       </c>
       <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
         <v>2</v>
-      </c>
-      <c r="BV49">
-        <v>0</v>
       </c>
       <c r="BW49">
         <v>0</v>
@@ -13023,19 +13041,19 @@
         <v>281</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -13071,19 +13089,19 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="W50">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="X50">
+        <v>9</v>
+      </c>
+      <c r="Y50">
         <v>3</v>
       </c>
-      <c r="Y50">
-        <v>1</v>
-      </c>
       <c r="Z50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -13119,19 +13137,19 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM50">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -13215,19 +13233,19 @@
         <v>0</v>
       </c>
       <c r="BR50">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="BS50">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="BT50">
+        <v>9</v>
+      </c>
+      <c r="BU50">
         <v>3</v>
       </c>
-      <c r="BU50">
-        <v>1</v>
-      </c>
       <c r="BV50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW50">
         <v>0</v>
@@ -13253,19 +13271,19 @@
         <v>282</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -13301,19 +13319,19 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -13349,19 +13367,19 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN51">
         <v>1</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -13445,19 +13463,19 @@
         <v>0</v>
       </c>
       <c r="BR51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BT51">
         <v>1</v>
       </c>
       <c r="BU51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW51">
         <v>0</v>
@@ -13483,16 +13501,16 @@
         <v>283</v>
       </c>
       <c r="F52">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -13507,13 +13525,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -13531,16 +13549,16 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -13555,10 +13573,10 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -13579,16 +13597,16 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AM52">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AN52">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP52">
         <v>0</v>
@@ -13636,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="BE52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -13675,16 +13693,16 @@
         <v>0</v>
       </c>
       <c r="BR52">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="BS52">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="BT52">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="BU52">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BV52">
         <v>0</v>
@@ -13713,16 +13731,16 @@
         <v>284</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -13761,16 +13779,16 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W53">
         <v>2</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -13809,112 +13827,112 @@
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
         <v>2</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>0</v>
-      </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>0</v>
-      </c>
-      <c r="BI53">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>0</v>
-      </c>
-      <c r="BK53">
-        <v>0</v>
-      </c>
-      <c r="BL53">
-        <v>0</v>
-      </c>
-      <c r="BM53">
-        <v>0</v>
-      </c>
-      <c r="BN53">
-        <v>0</v>
-      </c>
-      <c r="BO53">
-        <v>0</v>
-      </c>
-      <c r="BP53">
-        <v>0</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53">
-        <v>4</v>
       </c>
       <c r="BS53">
         <v>2</v>
       </c>
       <c r="BT53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV53">
         <v>0</v>
@@ -13943,19 +13961,19 @@
         <v>285</v>
       </c>
       <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
         <v>5</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -13967,16 +13985,16 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -13991,163 +14009,163 @@
         <v>0</v>
       </c>
       <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>1</v>
+      </c>
+      <c r="BS54">
+        <v>8</v>
+      </c>
+      <c r="BT54">
         <v>5</v>
-      </c>
-      <c r="W54">
-        <v>4</v>
-      </c>
-      <c r="X54">
-        <v>3</v>
-      </c>
-      <c r="Y54">
-        <v>2</v>
-      </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>5</v>
-      </c>
-      <c r="AM54">
-        <v>4</v>
-      </c>
-      <c r="AN54">
-        <v>3</v>
-      </c>
-      <c r="AO54">
-        <v>2</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>0</v>
-      </c>
-      <c r="BK54">
-        <v>0</v>
-      </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-      <c r="BM54">
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <v>0</v>
-      </c>
-      <c r="BO54">
-        <v>0</v>
-      </c>
-      <c r="BP54">
-        <v>0</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54">
-        <v>5</v>
-      </c>
-      <c r="BS54">
-        <v>4</v>
-      </c>
-      <c r="BT54">
-        <v>3</v>
       </c>
       <c r="BU54">
         <v>2</v>
       </c>
       <c r="BV54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW54">
         <v>0</v>
@@ -14173,16 +14191,16 @@
         <v>286</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -14221,16 +14239,16 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X55">
         <v>3</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -14269,112 +14287,112 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM55">
         <v>0</v>
       </c>
       <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>1</v>
+      </c>
+      <c r="BS55">
+        <v>1</v>
+      </c>
+      <c r="BT55">
         <v>3</v>
       </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <v>0</v>
-      </c>
-      <c r="BM55">
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <v>0</v>
-      </c>
       <c r="BU55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV55">
         <v>0</v>
@@ -14403,19 +14421,19 @@
         <v>287</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -14451,19 +14469,19 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -14499,19 +14517,19 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0</v>
@@ -14595,19 +14613,19 @@
         <v>0</v>
       </c>
       <c r="BR56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BT56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU56">
         <v>1</v>
       </c>
       <c r="BV56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW56">
         <v>0</v>
@@ -14633,16 +14651,16 @@
         <v>288</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -14681,16 +14699,16 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -14705,10 +14723,10 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -14729,16 +14747,16 @@
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AM57">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP57">
         <v>0</v>
@@ -14786,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="BE57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF57">
         <v>0</v>
@@ -14825,16 +14843,16 @@
         <v>0</v>
       </c>
       <c r="BR57">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="BS57">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="BT57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BU57">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BV57">
         <v>0</v>
@@ -14863,16 +14881,16 @@
         <v>289</v>
       </c>
       <c r="F58">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -14911,16 +14929,16 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="W58">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="X58">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -14935,16 +14953,16 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -14959,16 +14977,16 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AM58">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="AN58">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP58">
         <v>0</v>
@@ -15055,16 +15073,16 @@
         <v>0</v>
       </c>
       <c r="BR58">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="BS58">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="BT58">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="BU58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BV58">
         <v>0</v>
@@ -15093,16 +15111,16 @@
         <v>290</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -15117,43 +15135,43 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>5</v>
+      </c>
+      <c r="W59">
+        <v>4</v>
+      </c>
+      <c r="X59">
         <v>3</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -15189,19 +15207,19 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -15285,16 +15303,16 @@
         <v>0</v>
       </c>
       <c r="BR59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BT59">
         <v>3</v>
       </c>
       <c r="BU59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV59">
         <v>1</v>
@@ -15306,6 +15324,1386 @@
         <v>0</v>
       </c>
       <c r="BY59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:77">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60">
+        <v>2025</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F60">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>14</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>5</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+      <c r="BQ60">
+        <v>0</v>
+      </c>
+      <c r="BR60">
+        <v>0</v>
+      </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
+      <c r="BT60">
+        <v>0</v>
+      </c>
+      <c r="BU60">
+        <v>0</v>
+      </c>
+      <c r="BV60">
+        <v>0</v>
+      </c>
+      <c r="BW60">
+        <v>0</v>
+      </c>
+      <c r="BX60">
+        <v>0</v>
+      </c>
+      <c r="BY60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:77">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61">
+        <v>2025</v>
+      </c>
+      <c r="E61" t="s">
+        <v>292</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>3</v>
+      </c>
+      <c r="X61">
+        <v>4</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+      <c r="AZ61">
+        <v>0</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
+        <v>0</v>
+      </c>
+      <c r="BQ61">
+        <v>0</v>
+      </c>
+      <c r="BR61">
+        <v>1</v>
+      </c>
+      <c r="BS61">
+        <v>3</v>
+      </c>
+      <c r="BT61">
+        <v>4</v>
+      </c>
+      <c r="BU61">
+        <v>1</v>
+      </c>
+      <c r="BV61">
+        <v>0</v>
+      </c>
+      <c r="BW61">
+        <v>0</v>
+      </c>
+      <c r="BX61">
+        <v>0</v>
+      </c>
+      <c r="BY61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:77">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
+      </c>
+      <c r="E62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>18</v>
+      </c>
+      <c r="H62">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>13</v>
+      </c>
+      <c r="W62">
+        <v>18</v>
+      </c>
+      <c r="X62">
+        <v>11</v>
+      </c>
+      <c r="Y62">
+        <v>5</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>14</v>
+      </c>
+      <c r="AN62">
+        <v>11</v>
+      </c>
+      <c r="AO62">
+        <v>5</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+      <c r="BQ62">
+        <v>0</v>
+      </c>
+      <c r="BR62">
+        <v>13</v>
+      </c>
+      <c r="BS62">
+        <v>18</v>
+      </c>
+      <c r="BT62">
+        <v>11</v>
+      </c>
+      <c r="BU62">
+        <v>5</v>
+      </c>
+      <c r="BV62">
+        <v>2</v>
+      </c>
+      <c r="BW62">
+        <v>2</v>
+      </c>
+      <c r="BX62">
+        <v>0</v>
+      </c>
+      <c r="BY62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:77">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
+      </c>
+      <c r="E63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+      <c r="BQ63">
+        <v>0</v>
+      </c>
+      <c r="BR63">
+        <v>5</v>
+      </c>
+      <c r="BS63">
+        <v>1</v>
+      </c>
+      <c r="BT63">
+        <v>0</v>
+      </c>
+      <c r="BU63">
+        <v>0</v>
+      </c>
+      <c r="BV63">
+        <v>0</v>
+      </c>
+      <c r="BW63">
+        <v>0</v>
+      </c>
+      <c r="BX63">
+        <v>0</v>
+      </c>
+      <c r="BY63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:77">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
+        <v>295</v>
+      </c>
+      <c r="F64">
+        <v>85</v>
+      </c>
+      <c r="G64">
+        <v>75</v>
+      </c>
+      <c r="H64">
+        <v>69</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>74</v>
+      </c>
+      <c r="W64">
+        <v>74</v>
+      </c>
+      <c r="X64">
+        <v>69</v>
+      </c>
+      <c r="Y64">
+        <v>9</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>11</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>64</v>
+      </c>
+      <c r="AM64">
+        <v>67</v>
+      </c>
+      <c r="AN64">
+        <v>56</v>
+      </c>
+      <c r="AO64">
+        <v>7</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+      <c r="BQ64">
+        <v>0</v>
+      </c>
+      <c r="BR64">
+        <v>85</v>
+      </c>
+      <c r="BS64">
+        <v>75</v>
+      </c>
+      <c r="BT64">
+        <v>69</v>
+      </c>
+      <c r="BU64">
+        <v>10</v>
+      </c>
+      <c r="BV64">
+        <v>0</v>
+      </c>
+      <c r="BW64">
+        <v>0</v>
+      </c>
+      <c r="BX64">
+        <v>0</v>
+      </c>
+      <c r="BY64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:77">
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <v>1</v>
+      </c>
+      <c r="BS65">
+        <v>7</v>
+      </c>
+      <c r="BT65">
+        <v>3</v>
+      </c>
+      <c r="BU65">
+        <v>0</v>
+      </c>
+      <c r="BV65">
+        <v>1</v>
+      </c>
+      <c r="BW65">
+        <v>0</v>
+      </c>
+      <c r="BX65">
+        <v>0</v>
+      </c>
+      <c r="BY65">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="300">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -785,6 +785,9 @@
     <t>Gwanyika Rural Health Centre</t>
   </si>
   <si>
+    <t>Huchu Clinic</t>
+  </si>
+  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
@@ -821,6 +824,9 @@
     <t>Masomo Clinic</t>
   </si>
   <si>
+    <t>Masuka Clinic</t>
+  </si>
+  <si>
     <t>Mateme SDA Clinic</t>
   </si>
   <si>
@@ -849,6 +855,9 @@
   </si>
   <si>
     <t>Mushumbi RHC</t>
+  </si>
+  <si>
+    <t>Musita Clinic</t>
   </si>
   <si>
     <t>Natisa</t>
@@ -1748,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY65"/>
+  <dimension ref="A1:BY68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7291,16 +7300,16 @@
         <v>256</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -7339,16 +7348,16 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -7390,13 +7399,13 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -7483,16 +7492,16 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -7521,13 +7530,13 @@
         <v>257</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -7569,13 +7578,13 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -7713,13 +7722,13 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BS26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BT26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26">
         <v>0</v>
@@ -7751,19 +7760,19 @@
         <v>258</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -7799,19 +7808,19 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="W27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -7847,16 +7856,16 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -7943,19 +7952,19 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BS27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BT27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BU27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW27">
         <v>0</v>
@@ -7981,211 +7990,211 @@
         <v>259</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>17</v>
-      </c>
-      <c r="W28">
-        <v>9</v>
-      </c>
-      <c r="X28">
-        <v>9</v>
-      </c>
-      <c r="Y28">
+      <c r="AN28">
         <v>2</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1</v>
-      </c>
-      <c r="AM28">
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>8</v>
+      </c>
+      <c r="BS28">
+        <v>10</v>
+      </c>
+      <c r="BT28">
+        <v>8</v>
+      </c>
+      <c r="BU28">
         <v>3</v>
       </c>
-      <c r="AN28">
-        <v>5</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
-      <c r="BP28">
-        <v>0</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>17</v>
-      </c>
-      <c r="BS28">
-        <v>9</v>
-      </c>
-      <c r="BT28">
-        <v>9</v>
-      </c>
-      <c r="BU28">
-        <v>2</v>
-      </c>
       <c r="BV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW28">
         <v>0</v>
@@ -8211,112 +8220,112 @@
         <v>260</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>17</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
         <v>2</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>3</v>
       </c>
-      <c r="O29">
-        <v>6</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
       <c r="AN29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -8403,22 +8412,22 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="BS29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BT29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BU29">
         <v>2</v>
       </c>
       <c r="BV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX29">
         <v>0</v>
@@ -8441,46 +8450,46 @@
         <v>261</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
       <c r="O30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -8489,166 +8498,166 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
         <v>3</v>
       </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>7</v>
-      </c>
-      <c r="AM30">
-        <v>3</v>
-      </c>
-      <c r="AN30">
-        <v>4</v>
-      </c>
-      <c r="AO30">
-        <v>1</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BD30">
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <v>0</v>
-      </c>
-      <c r="BF30">
-        <v>0</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>0</v>
-      </c>
-      <c r="BI30">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-      <c r="BK30">
-        <v>0</v>
-      </c>
-      <c r="BL30">
-        <v>0</v>
-      </c>
-      <c r="BM30">
-        <v>0</v>
-      </c>
-      <c r="BN30">
-        <v>0</v>
-      </c>
-      <c r="BO30">
-        <v>0</v>
-      </c>
-      <c r="BP30">
-        <v>0</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30">
-        <v>7</v>
-      </c>
       <c r="BS30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BT30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BU30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -8671,16 +8680,16 @@
         <v>262</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8695,40 +8704,40 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
         <v>4</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -8767,112 +8776,112 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM31">
         <v>3</v>
       </c>
       <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>7</v>
+      </c>
+      <c r="BS31">
         <v>3</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
-      </c>
-      <c r="BF31">
-        <v>0</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>0</v>
-      </c>
-      <c r="BI31">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BK31">
-        <v>0</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>0</v>
-      </c>
-      <c r="BO31">
-        <v>0</v>
-      </c>
-      <c r="BP31">
-        <v>0</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31">
-        <v>9</v>
-      </c>
-      <c r="BS31">
-        <v>9</v>
       </c>
       <c r="BT31">
         <v>4</v>
       </c>
       <c r="BU31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -8901,208 +8910,208 @@
         <v>263</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>9</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>9</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>3</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>10</v>
-      </c>
-      <c r="W32">
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
         <v>9</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>2</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-      <c r="BK32">
-        <v>0</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
-      <c r="BO32">
-        <v>0</v>
-      </c>
-      <c r="BP32">
-        <v>0</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32">
-        <v>10</v>
       </c>
       <c r="BS32">
         <v>9</v>
       </c>
       <c r="BT32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BU32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV32">
         <v>0</v>
@@ -9131,16 +9140,16 @@
         <v>264</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -9179,16 +9188,16 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -9230,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -9323,16 +9332,16 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BS33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BT33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BU33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV33">
         <v>0</v>
@@ -9361,16 +9370,16 @@
         <v>265</v>
       </c>
       <c r="F34">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -9409,16 +9418,16 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="W34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -9460,109 +9469,109 @@
         <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>8</v>
+      </c>
+      <c r="BS34">
+        <v>7</v>
+      </c>
+      <c r="BT34">
         <v>4</v>
       </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AO34">
-        <v>2</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
-      </c>
-      <c r="BF34">
-        <v>0</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
-      <c r="BI34">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
-      </c>
-      <c r="BK34">
-        <v>0</v>
-      </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>0</v>
-      </c>
-      <c r="BO34">
-        <v>0</v>
-      </c>
-      <c r="BP34">
-        <v>0</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34">
-        <v>24</v>
-      </c>
-      <c r="BS34">
-        <v>6</v>
-      </c>
-      <c r="BT34">
-        <v>5</v>
-      </c>
       <c r="BU34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV34">
         <v>0</v>
@@ -9591,16 +9600,16 @@
         <v>266</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -9639,16 +9648,16 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -9690,13 +9699,13 @@
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -9783,16 +9792,16 @@
         <v>0</v>
       </c>
       <c r="BR35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BS35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV35">
         <v>0</v>
@@ -9821,13 +9830,13 @@
         <v>267</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -9845,13 +9854,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9869,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -10013,13 +10022,13 @@
         <v>0</v>
       </c>
       <c r="BR36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BS36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU36">
         <v>0</v>
@@ -10051,16 +10060,16 @@
         <v>268</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>6</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -10075,13 +10084,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -10099,16 +10108,16 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -10147,16 +10156,16 @@
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>0</v>
@@ -10243,16 +10252,16 @@
         <v>0</v>
       </c>
       <c r="BR37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BS37">
         <v>6</v>
       </c>
       <c r="BT37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV37">
         <v>0</v>
@@ -10281,208 +10290,208 @@
         <v>269</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>24</v>
+      </c>
+      <c r="W38">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>8</v>
-      </c>
-      <c r="W38">
-        <v>7</v>
-      </c>
       <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>24</v>
+      </c>
+      <c r="BS38">
         <v>4</v>
       </c>
-      <c r="Y38">
-        <v>3</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
+      <c r="BT38">
         <v>2</v>
       </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38">
-        <v>0</v>
-      </c>
-      <c r="BF38">
-        <v>0</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>0</v>
-      </c>
-      <c r="BK38">
-        <v>0</v>
-      </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BM38">
-        <v>0</v>
-      </c>
-      <c r="BN38">
-        <v>0</v>
-      </c>
-      <c r="BO38">
-        <v>0</v>
-      </c>
-      <c r="BP38">
-        <v>0</v>
-      </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
-      <c r="BR38">
-        <v>8</v>
-      </c>
-      <c r="BS38">
-        <v>7</v>
-      </c>
-      <c r="BT38">
-        <v>4</v>
-      </c>
       <c r="BU38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV38">
         <v>0</v>
@@ -10511,208 +10520,208 @@
         <v>270</v>
       </c>
       <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>6</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
         <v>2</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>2</v>
       </c>
-      <c r="W39">
-        <v>5</v>
-      </c>
-      <c r="X39">
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
+      <c r="BR39">
+        <v>6</v>
+      </c>
+      <c r="BS39">
+        <v>6</v>
+      </c>
+      <c r="BT39">
+        <v>3</v>
+      </c>
+      <c r="BU39">
         <v>2</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>2</v>
-      </c>
-      <c r="AM39">
-        <v>5</v>
-      </c>
-      <c r="AN39">
-        <v>2</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <v>0</v>
-      </c>
-      <c r="BF39">
-        <v>0</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>0</v>
-      </c>
-      <c r="BK39">
-        <v>0</v>
-      </c>
-      <c r="BL39">
-        <v>0</v>
-      </c>
-      <c r="BM39">
-        <v>0</v>
-      </c>
-      <c r="BN39">
-        <v>0</v>
-      </c>
-      <c r="BO39">
-        <v>0</v>
-      </c>
-      <c r="BP39">
-        <v>0</v>
-      </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
-      <c r="BR39">
-        <v>2</v>
-      </c>
-      <c r="BS39">
-        <v>5</v>
-      </c>
-      <c r="BT39">
-        <v>2</v>
-      </c>
-      <c r="BU39">
-        <v>0</v>
       </c>
       <c r="BV39">
         <v>0</v>
@@ -10741,16 +10750,16 @@
         <v>271</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -10762,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -10789,16 +10798,16 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -10810,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -10840,13 +10849,13 @@
         <v>0</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40">
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -10858,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -10933,16 +10942,16 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BT40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV40">
         <v>0</v>
@@ -10954,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="BY40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:77">
@@ -10971,16 +10980,16 @@
         <v>272</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -11019,16 +11028,16 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X41">
         <v>2</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -11067,16 +11076,16 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -11163,16 +11172,16 @@
         <v>0</v>
       </c>
       <c r="BR41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BS41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BT41">
         <v>2</v>
       </c>
       <c r="BU41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV41">
         <v>0</v>
@@ -11201,19 +11210,19 @@
         <v>273</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -11222,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -11249,19 +11258,19 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -11270,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -11300,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -11318,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -11393,19 +11402,19 @@
         <v>0</v>
       </c>
       <c r="BR42">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BS42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BT42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW42">
         <v>0</v>
@@ -11414,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="BY42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:77">
@@ -11431,211 +11440,211 @@
         <v>274</v>
       </c>
       <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
         <v>2</v>
       </c>
-      <c r="W43">
-        <v>5</v>
-      </c>
-      <c r="X43">
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
+      <c r="BR43">
         <v>4</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
+      <c r="BS43">
+        <v>3</v>
+      </c>
+      <c r="BT43">
         <v>2</v>
       </c>
-      <c r="AM43">
-        <v>5</v>
-      </c>
-      <c r="AN43">
-        <v>4</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43">
-        <v>0</v>
-      </c>
-      <c r="BF43">
-        <v>0</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>0</v>
-      </c>
-      <c r="BK43">
-        <v>0</v>
-      </c>
-      <c r="BL43">
-        <v>0</v>
-      </c>
-      <c r="BM43">
-        <v>0</v>
-      </c>
-      <c r="BN43">
-        <v>0</v>
-      </c>
-      <c r="BO43">
-        <v>0</v>
-      </c>
-      <c r="BP43">
-        <v>0</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43">
-        <v>2</v>
-      </c>
-      <c r="BS43">
-        <v>5</v>
-      </c>
-      <c r="BT43">
-        <v>4</v>
-      </c>
       <c r="BU43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW43">
         <v>0</v>
@@ -11661,19 +11670,19 @@
         <v>275</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -11709,19 +11718,19 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
         <v>4</v>
       </c>
-      <c r="X44">
-        <v>3</v>
-      </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -11757,19 +11766,19 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>6</v>
+      </c>
+      <c r="AN44">
         <v>4</v>
       </c>
-      <c r="AN44">
-        <v>3</v>
-      </c>
       <c r="AO44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -11853,19 +11862,19 @@
         <v>0</v>
       </c>
       <c r="BR44">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="BS44">
+        <v>7</v>
+      </c>
+      <c r="BT44">
         <v>4</v>
       </c>
-      <c r="BT44">
-        <v>3</v>
-      </c>
       <c r="BU44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW44">
         <v>0</v>
@@ -11891,19 +11900,19 @@
         <v>276</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -11939,19 +11948,19 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X45">
         <v>4</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -11987,19 +11996,19 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AM45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN45">
         <v>4</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -12083,19 +12092,19 @@
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT45">
         <v>4</v>
       </c>
       <c r="BU45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW45">
         <v>0</v>
@@ -12121,109 +12130,109 @@
         <v>277</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
         <v>4</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>15</v>
-      </c>
-      <c r="O46">
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>4</v>
       </c>
-      <c r="P46">
-        <v>6</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>1</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
       <c r="AN46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -12313,22 +12322,22 @@
         <v>0</v>
       </c>
       <c r="BR46">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BS46">
         <v>4</v>
       </c>
       <c r="BT46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BU46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV46">
         <v>0</v>
       </c>
       <c r="BW46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX46">
         <v>0</v>
@@ -12354,13 +12363,13 @@
         <v>7</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -12402,13 +12411,13 @@
         <v>7</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -12450,13 +12459,13 @@
         <v>7</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47">
         <v>0</v>
@@ -12546,13 +12555,13 @@
         <v>7</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV47">
         <v>0</v>
@@ -12581,22 +12590,22 @@
         <v>279</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -12605,22 +12614,22 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -12629,166 +12638,166 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
+        <v>15</v>
+      </c>
+      <c r="BS48">
         <v>4</v>
       </c>
-      <c r="X48">
-        <v>3</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>0</v>
-      </c>
-      <c r="BK48">
-        <v>0</v>
-      </c>
-      <c r="BL48">
-        <v>0</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
-      <c r="BP48">
-        <v>0</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>0</v>
-      </c>
       <c r="BT48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV48">
         <v>0</v>
       </c>
       <c r="BW48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX48">
         <v>0</v>
@@ -12811,211 +12820,211 @@
         <v>280</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>16</v>
+      </c>
+      <c r="W49">
+        <v>6</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
         <v>2</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>9</v>
-      </c>
-      <c r="W49">
-        <v>9</v>
-      </c>
-      <c r="X49">
-        <v>5</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+      <c r="AN49">
+        <v>6</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>16</v>
+      </c>
+      <c r="BS49">
+        <v>6</v>
+      </c>
+      <c r="BT49">
+        <v>6</v>
+      </c>
+      <c r="BU49">
         <v>2</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>0</v>
-      </c>
-      <c r="AS49">
-        <v>0</v>
-      </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
-      <c r="AU49">
-        <v>0</v>
-      </c>
-      <c r="AV49">
-        <v>0</v>
-      </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>0</v>
-      </c>
-      <c r="BB49">
-        <v>0</v>
-      </c>
-      <c r="BC49">
-        <v>0</v>
-      </c>
-      <c r="BD49">
-        <v>0</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
-      </c>
-      <c r="BF49">
-        <v>0</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
-      <c r="BI49">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>0</v>
-      </c>
-      <c r="BK49">
-        <v>0</v>
-      </c>
-      <c r="BL49">
-        <v>0</v>
-      </c>
-      <c r="BM49">
-        <v>0</v>
-      </c>
-      <c r="BN49">
-        <v>0</v>
-      </c>
-      <c r="BO49">
-        <v>0</v>
-      </c>
-      <c r="BP49">
-        <v>0</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49">
-        <v>9</v>
-      </c>
-      <c r="BS49">
-        <v>9</v>
-      </c>
-      <c r="BT49">
-        <v>5</v>
-      </c>
-      <c r="BU49">
-        <v>0</v>
-      </c>
       <c r="BV49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW49">
         <v>0</v>
@@ -13041,19 +13050,19 @@
         <v>281</v>
       </c>
       <c r="F50">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -13089,19 +13098,19 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="W50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -13137,19 +13146,19 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AM50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AN50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -13233,19 +13242,19 @@
         <v>0</v>
       </c>
       <c r="BR50">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="BS50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BT50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BU50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW50">
         <v>0</v>
@@ -13271,16 +13280,16 @@
         <v>282</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -13319,16 +13328,16 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -13370,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <v>1</v>
@@ -13463,13 +13472,13 @@
         <v>0</v>
       </c>
       <c r="BR51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU51">
         <v>0</v>
@@ -13501,19 +13510,19 @@
         <v>283</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -13525,13 +13534,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -13549,19 +13558,19 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y52">
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -13693,19 +13702,19 @@
         <v>0</v>
       </c>
       <c r="BR52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BS52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BT52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BU52">
         <v>0</v>
       </c>
       <c r="BV52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW52">
         <v>0</v>
@@ -13731,211 +13740,211 @@
         <v>284</v>
       </c>
       <c r="F53">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>27</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="G53">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>34</v>
+      </c>
+      <c r="W53">
+        <v>27</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
         <v>2</v>
       </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>34</v>
+      </c>
+      <c r="AM53">
+        <v>27</v>
+      </c>
+      <c r="AN53">
+        <v>9</v>
+      </c>
+      <c r="AO53">
+        <v>3</v>
+      </c>
+      <c r="AP53">
         <v>2</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>34</v>
+      </c>
+      <c r="BS53">
+        <v>27</v>
+      </c>
+      <c r="BT53">
+        <v>9</v>
+      </c>
+      <c r="BU53">
+        <v>3</v>
+      </c>
+      <c r="BV53">
         <v>2</v>
-      </c>
-      <c r="W53">
-        <v>2</v>
-      </c>
-      <c r="X53">
-        <v>4</v>
-      </c>
-      <c r="Y53">
-        <v>2</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>0</v>
-      </c>
-      <c r="BB53">
-        <v>0</v>
-      </c>
-      <c r="BC53">
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
-      <c r="BG53">
-        <v>0</v>
-      </c>
-      <c r="BH53">
-        <v>0</v>
-      </c>
-      <c r="BI53">
-        <v>0</v>
-      </c>
-      <c r="BJ53">
-        <v>0</v>
-      </c>
-      <c r="BK53">
-        <v>0</v>
-      </c>
-      <c r="BL53">
-        <v>0</v>
-      </c>
-      <c r="BM53">
-        <v>0</v>
-      </c>
-      <c r="BN53">
-        <v>0</v>
-      </c>
-      <c r="BO53">
-        <v>0</v>
-      </c>
-      <c r="BP53">
-        <v>0</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53">
-        <v>2</v>
-      </c>
-      <c r="BS53">
-        <v>2</v>
-      </c>
-      <c r="BT53">
-        <v>2</v>
-      </c>
-      <c r="BU53">
-        <v>1</v>
-      </c>
-      <c r="BV53">
-        <v>0</v>
       </c>
       <c r="BW53">
         <v>0</v>
@@ -13961,208 +13970,208 @@
         <v>285</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>6</v>
+      </c>
+      <c r="W54">
         <v>2</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>8</v>
-      </c>
-      <c r="P54">
-        <v>5</v>
-      </c>
-      <c r="Q54">
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
         <v>2</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>0</v>
-      </c>
-      <c r="BK54">
-        <v>0</v>
-      </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-      <c r="BM54">
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <v>0</v>
-      </c>
-      <c r="BO54">
-        <v>0</v>
-      </c>
-      <c r="BP54">
-        <v>0</v>
-      </c>
-      <c r="BQ54">
-        <v>0</v>
-      </c>
-      <c r="BR54">
-        <v>1</v>
-      </c>
       <c r="BS54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BT54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV54">
         <v>0</v>
@@ -14194,13 +14203,13 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -14215,13 +14224,13 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -14239,160 +14248,160 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
+      <c r="BR55">
+        <v>1</v>
+      </c>
+      <c r="BS55">
         <v>3</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <v>0</v>
-      </c>
-      <c r="BM55">
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <v>1</v>
-      </c>
-      <c r="BS55">
-        <v>1</v>
       </c>
       <c r="BT55">
         <v>3</v>
       </c>
       <c r="BU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV55">
         <v>0</v>
@@ -14421,19 +14430,19 @@
         <v>287</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -14469,19 +14478,19 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -14517,19 +14526,19 @@
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56">
         <v>0</v>
@@ -14613,19 +14622,19 @@
         <v>0</v>
       </c>
       <c r="BR56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BT56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU56">
         <v>1</v>
       </c>
       <c r="BV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW56">
         <v>0</v>
@@ -14651,16 +14660,16 @@
         <v>288</v>
       </c>
       <c r="F57">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -14675,16 +14684,16 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -14699,16 +14708,16 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -14723,136 +14732,136 @@
         <v>0</v>
       </c>
       <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>1</v>
+      </c>
+      <c r="BS57">
+        <v>8</v>
+      </c>
+      <c r="BT57">
+        <v>5</v>
+      </c>
+      <c r="BU57">
         <v>2</v>
-      </c>
-      <c r="AE57">
-        <v>1</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>66</v>
-      </c>
-      <c r="AM57">
-        <v>74</v>
-      </c>
-      <c r="AN57">
-        <v>51</v>
-      </c>
-      <c r="AO57">
-        <v>24</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <v>0</v>
-      </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <v>0</v>
-      </c>
-      <c r="AX57">
-        <v>0</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>0</v>
-      </c>
-      <c r="BB57">
-        <v>0</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BD57">
-        <v>0</v>
-      </c>
-      <c r="BE57">
-        <v>2</v>
-      </c>
-      <c r="BF57">
-        <v>0</v>
-      </c>
-      <c r="BG57">
-        <v>0</v>
-      </c>
-      <c r="BH57">
-        <v>0</v>
-      </c>
-      <c r="BI57">
-        <v>0</v>
-      </c>
-      <c r="BJ57">
-        <v>0</v>
-      </c>
-      <c r="BK57">
-        <v>0</v>
-      </c>
-      <c r="BL57">
-        <v>0</v>
-      </c>
-      <c r="BM57">
-        <v>0</v>
-      </c>
-      <c r="BN57">
-        <v>0</v>
-      </c>
-      <c r="BO57">
-        <v>0</v>
-      </c>
-      <c r="BP57">
-        <v>0</v>
-      </c>
-      <c r="BQ57">
-        <v>0</v>
-      </c>
-      <c r="BR57">
-        <v>77</v>
-      </c>
-      <c r="BS57">
-        <v>78</v>
-      </c>
-      <c r="BT57">
-        <v>55</v>
-      </c>
-      <c r="BU57">
-        <v>26</v>
       </c>
       <c r="BV57">
         <v>0</v>
@@ -14881,16 +14890,16 @@
         <v>289</v>
       </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>4</v>
       </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -14929,16 +14938,16 @@
         <v>0</v>
       </c>
       <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
         <v>4</v>
       </c>
-      <c r="W58">
-        <v>2</v>
-      </c>
       <c r="X58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -14977,13 +14986,13 @@
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -15073,16 +15082,16 @@
         <v>0</v>
       </c>
       <c r="BR58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV58">
         <v>0</v>
@@ -15114,13 +15123,13 @@
         <v>5</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -15162,13 +15171,13 @@
         <v>5</v>
       </c>
       <c r="W59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -15210,13 +15219,13 @@
         <v>5</v>
       </c>
       <c r="AM59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP59">
         <v>1</v>
@@ -15306,13 +15315,13 @@
         <v>5</v>
       </c>
       <c r="BS59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV59">
         <v>1</v>
@@ -15341,16 +15350,16 @@
         <v>291</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -15389,16 +15398,16 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -15413,10 +15422,10 @@
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -15437,16 +15446,16 @@
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="AM60">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP60">
         <v>0</v>
@@ -15494,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="BE60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF60">
         <v>0</v>
@@ -15533,16 +15542,16 @@
         <v>0</v>
       </c>
       <c r="BR60">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BS60">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BT60">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BU60">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BV60">
         <v>0</v>
@@ -15571,109 +15580,109 @@
         <v>292</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
         <v>4</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
       <c r="W61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
         <v>4</v>
       </c>
-      <c r="Y61">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
       <c r="AM61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61">
         <v>0</v>
@@ -15763,16 +15772,16 @@
         <v>0</v>
       </c>
       <c r="BR61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BS61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV61">
         <v>0</v>
@@ -15801,214 +15810,214 @@
         <v>293</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
         <v>5</v>
       </c>
-      <c r="J62">
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
         <v>2</v>
       </c>
-      <c r="K62">
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>5</v>
+      </c>
+      <c r="AM62">
+        <v>4</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
         <v>2</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>13</v>
-      </c>
-      <c r="W62">
-        <v>18</v>
-      </c>
-      <c r="X62">
-        <v>11</v>
-      </c>
-      <c r="Y62">
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+      <c r="AY62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>0</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+      <c r="BQ62">
+        <v>0</v>
+      </c>
+      <c r="BR62">
         <v>5</v>
       </c>
-      <c r="Z62">
+      <c r="BS62">
+        <v>4</v>
+      </c>
+      <c r="BT62">
+        <v>3</v>
+      </c>
+      <c r="BU62">
         <v>2</v>
       </c>
-      <c r="AA62">
-        <v>2</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>14</v>
-      </c>
-      <c r="AN62">
-        <v>11</v>
-      </c>
-      <c r="AO62">
-        <v>5</v>
-      </c>
-      <c r="AP62">
-        <v>2</v>
-      </c>
-      <c r="AQ62">
-        <v>2</v>
-      </c>
-      <c r="AR62">
-        <v>0</v>
-      </c>
-      <c r="AS62">
-        <v>0</v>
-      </c>
-      <c r="AT62">
-        <v>0</v>
-      </c>
-      <c r="AU62">
-        <v>0</v>
-      </c>
-      <c r="AV62">
-        <v>0</v>
-      </c>
-      <c r="AW62">
-        <v>0</v>
-      </c>
-      <c r="AX62">
-        <v>0</v>
-      </c>
-      <c r="AY62">
-        <v>0</v>
-      </c>
-      <c r="AZ62">
-        <v>0</v>
-      </c>
-      <c r="BA62">
-        <v>0</v>
-      </c>
-      <c r="BB62">
-        <v>0</v>
-      </c>
-      <c r="BC62">
-        <v>0</v>
-      </c>
-      <c r="BD62">
-        <v>0</v>
-      </c>
-      <c r="BE62">
-        <v>0</v>
-      </c>
-      <c r="BF62">
-        <v>0</v>
-      </c>
-      <c r="BG62">
-        <v>0</v>
-      </c>
-      <c r="BH62">
-        <v>0</v>
-      </c>
-      <c r="BI62">
-        <v>0</v>
-      </c>
-      <c r="BJ62">
-        <v>0</v>
-      </c>
-      <c r="BK62">
-        <v>0</v>
-      </c>
-      <c r="BL62">
-        <v>0</v>
-      </c>
-      <c r="BM62">
-        <v>0</v>
-      </c>
-      <c r="BN62">
-        <v>0</v>
-      </c>
-      <c r="BO62">
-        <v>0</v>
-      </c>
-      <c r="BP62">
-        <v>0</v>
-      </c>
-      <c r="BQ62">
-        <v>0</v>
-      </c>
-      <c r="BR62">
-        <v>13</v>
-      </c>
-      <c r="BS62">
-        <v>18</v>
-      </c>
-      <c r="BT62">
-        <v>11</v>
-      </c>
-      <c r="BU62">
-        <v>5</v>
-      </c>
       <c r="BV62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX62">
         <v>0</v>
@@ -16031,13 +16040,13 @@
         <v>294</v>
       </c>
       <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
         <v>5</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -16079,13 +16088,13 @@
         <v>0</v>
       </c>
       <c r="V63">
+        <v>14</v>
+      </c>
+      <c r="W63">
         <v>5</v>
       </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
       <c r="X63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -16127,13 +16136,13 @@
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO63">
         <v>0</v>
@@ -16223,10 +16232,10 @@
         <v>0</v>
       </c>
       <c r="BR63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT63">
         <v>0</v>
@@ -16261,16 +16270,16 @@
         <v>295</v>
       </c>
       <c r="F64">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -16309,16 +16318,16 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="X64">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="Y64">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -16333,16 +16342,16 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -16357,16 +16366,16 @@
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AM64">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AN64">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AO64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -16453,16 +16462,16 @@
         <v>0</v>
       </c>
       <c r="BR64">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="BS64">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="BT64">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="BU64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BV64">
         <v>0</v>
@@ -16491,219 +16500,909 @@
         <v>296</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G65">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>13</v>
+      </c>
+      <c r="W65">
+        <v>18</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>5</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>2</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>14</v>
+      </c>
+      <c r="AN65">
+        <v>11</v>
+      </c>
+      <c r="AO65">
+        <v>5</v>
+      </c>
+      <c r="AP65">
+        <v>2</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <v>13</v>
+      </c>
+      <c r="BS65">
+        <v>18</v>
+      </c>
+      <c r="BT65">
+        <v>11</v>
+      </c>
+      <c r="BU65">
+        <v>5</v>
+      </c>
+      <c r="BV65">
+        <v>2</v>
+      </c>
+      <c r="BW65">
+        <v>2</v>
+      </c>
+      <c r="BX65">
+        <v>0</v>
+      </c>
+      <c r="BY65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:77">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>5</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <v>0</v>
+      </c>
+      <c r="BR66">
+        <v>5</v>
+      </c>
+      <c r="BS66">
+        <v>1</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <v>0</v>
+      </c>
+      <c r="BX66">
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:77">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F67">
+        <v>85</v>
+      </c>
+      <c r="G67">
+        <v>75</v>
+      </c>
+      <c r="H67">
+        <v>69</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>74</v>
+      </c>
+      <c r="W67">
+        <v>74</v>
+      </c>
+      <c r="X67">
+        <v>69</v>
+      </c>
+      <c r="Y67">
+        <v>9</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>64</v>
+      </c>
+      <c r="AM67">
+        <v>67</v>
+      </c>
+      <c r="AN67">
+        <v>56</v>
+      </c>
+      <c r="AO67">
         <v>7</v>
       </c>
-      <c r="H65">
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BR67">
+        <v>85</v>
+      </c>
+      <c r="BS67">
+        <v>75</v>
+      </c>
+      <c r="BT67">
+        <v>69</v>
+      </c>
+      <c r="BU67">
+        <v>10</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+      <c r="BW67">
+        <v>0</v>
+      </c>
+      <c r="BX67">
+        <v>0</v>
+      </c>
+      <c r="BY67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:77">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68">
         <v>3</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
         <v>7</v>
       </c>
-      <c r="P65">
+      <c r="P68">
         <v>3</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>0</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>0</v>
-      </c>
-      <c r="AQ65">
-        <v>0</v>
-      </c>
-      <c r="AR65">
-        <v>0</v>
-      </c>
-      <c r="AS65">
-        <v>0</v>
-      </c>
-      <c r="AT65">
-        <v>0</v>
-      </c>
-      <c r="AU65">
-        <v>0</v>
-      </c>
-      <c r="AV65">
-        <v>0</v>
-      </c>
-      <c r="AW65">
-        <v>0</v>
-      </c>
-      <c r="AX65">
-        <v>0</v>
-      </c>
-      <c r="AY65">
-        <v>0</v>
-      </c>
-      <c r="AZ65">
-        <v>0</v>
-      </c>
-      <c r="BA65">
-        <v>0</v>
-      </c>
-      <c r="BB65">
-        <v>0</v>
-      </c>
-      <c r="BC65">
-        <v>0</v>
-      </c>
-      <c r="BD65">
-        <v>0</v>
-      </c>
-      <c r="BE65">
-        <v>0</v>
-      </c>
-      <c r="BF65">
-        <v>0</v>
-      </c>
-      <c r="BG65">
-        <v>0</v>
-      </c>
-      <c r="BH65">
-        <v>0</v>
-      </c>
-      <c r="BI65">
-        <v>0</v>
-      </c>
-      <c r="BJ65">
-        <v>0</v>
-      </c>
-      <c r="BK65">
-        <v>0</v>
-      </c>
-      <c r="BL65">
-        <v>0</v>
-      </c>
-      <c r="BM65">
-        <v>0</v>
-      </c>
-      <c r="BN65">
-        <v>0</v>
-      </c>
-      <c r="BO65">
-        <v>0</v>
-      </c>
-      <c r="BP65">
-        <v>0</v>
-      </c>
-      <c r="BQ65">
-        <v>0</v>
-      </c>
-      <c r="BR65">
-        <v>1</v>
-      </c>
-      <c r="BS65">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68">
+        <v>1</v>
+      </c>
+      <c r="BS68">
         <v>7</v>
       </c>
-      <c r="BT65">
+      <c r="BT68">
         <v>3</v>
       </c>
-      <c r="BU65">
-        <v>0</v>
-      </c>
-      <c r="BV65">
-        <v>1</v>
-      </c>
-      <c r="BW65">
-        <v>0</v>
-      </c>
-      <c r="BX65">
-        <v>0</v>
-      </c>
-      <c r="BY65">
+      <c r="BU68">
+        <v>0</v>
+      </c>
+      <c r="BV68">
+        <v>1</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BY68">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -9143,13 +9143,13 @@
         <v>264</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO33">
         <v>0</v>
@@ -9335,13 +9335,13 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BT33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU33">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="379">
   <si>
     <t>Delete(Y/N)</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>Sandawana Clinic</t>
+  </si>
+  <si>
+    <t>Sanyati Hospital</t>
   </si>
   <si>
     <t>Seke North Clinic</t>
@@ -1991,7 +1994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY146"/>
+  <dimension ref="A1:BY147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31454,22 +31457,22 @@
         <v>360</v>
       </c>
       <c r="F129">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -31478,22 +31481,22 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q129">
         <v>0</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -31502,16 +31505,16 @@
         <v>0</v>
       </c>
       <c r="V129">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X129">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Z129">
         <v>0</v>
@@ -31526,46 +31529,46 @@
         <v>0</v>
       </c>
       <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
         <v>2</v>
       </c>
-      <c r="AE129">
-        <v>1</v>
-      </c>
-      <c r="AF129">
-        <v>0</v>
-      </c>
-      <c r="AG129">
-        <v>0</v>
-      </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-      <c r="AI129">
-        <v>0</v>
-      </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
-      <c r="AK129">
-        <v>0</v>
-      </c>
-      <c r="AL129">
-        <v>66</v>
-      </c>
       <c r="AM129">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="AN129">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AO129">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AP129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR129">
         <v>0</v>
@@ -31607,61 +31610,61 @@
         <v>0</v>
       </c>
       <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
+      <c r="BQ129">
+        <v>0</v>
+      </c>
+      <c r="BR129">
         <v>2</v>
       </c>
-      <c r="BF129">
-        <v>0</v>
-      </c>
-      <c r="BG129">
-        <v>0</v>
-      </c>
-      <c r="BH129">
-        <v>0</v>
-      </c>
-      <c r="BI129">
-        <v>0</v>
-      </c>
-      <c r="BJ129">
-        <v>0</v>
-      </c>
-      <c r="BK129">
-        <v>0</v>
-      </c>
-      <c r="BL129">
-        <v>0</v>
-      </c>
-      <c r="BM129">
-        <v>0</v>
-      </c>
-      <c r="BN129">
-        <v>0</v>
-      </c>
-      <c r="BO129">
-        <v>0</v>
-      </c>
-      <c r="BP129">
-        <v>0</v>
-      </c>
-      <c r="BQ129">
-        <v>0</v>
-      </c>
-      <c r="BR129">
-        <v>77</v>
-      </c>
       <c r="BS129">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="BT129">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="BU129">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="BV129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX129">
         <v>0</v>
@@ -31684,161 +31687,161 @@
         <v>361</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="G130">
+        <v>78</v>
+      </c>
+      <c r="H130">
+        <v>55</v>
+      </c>
+      <c r="I130">
+        <v>26</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>75</v>
+      </c>
+      <c r="W130">
+        <v>77</v>
+      </c>
+      <c r="X130">
+        <v>55</v>
+      </c>
+      <c r="Y130">
+        <v>26</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
         <v>2</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>0</v>
-      </c>
-      <c r="R130">
-        <v>0</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-      <c r="U130">
-        <v>0</v>
-      </c>
-      <c r="V130">
-        <v>4</v>
-      </c>
-      <c r="W130">
+      <c r="AE130">
+        <v>1</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>66</v>
+      </c>
+      <c r="AM130">
+        <v>74</v>
+      </c>
+      <c r="AN130">
+        <v>51</v>
+      </c>
+      <c r="AO130">
+        <v>24</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AS130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AV130">
+        <v>0</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
         <v>2</v>
       </c>
-      <c r="X130">
-        <v>1</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
-      </c>
-      <c r="AB130">
-        <v>0</v>
-      </c>
-      <c r="AC130">
-        <v>0</v>
-      </c>
-      <c r="AD130">
-        <v>0</v>
-      </c>
-      <c r="AE130">
-        <v>0</v>
-      </c>
-      <c r="AF130">
-        <v>0</v>
-      </c>
-      <c r="AG130">
-        <v>0</v>
-      </c>
-      <c r="AH130">
-        <v>0</v>
-      </c>
-      <c r="AI130">
-        <v>0</v>
-      </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
-      <c r="AK130">
-        <v>0</v>
-      </c>
-      <c r="AL130">
-        <v>4</v>
-      </c>
-      <c r="AM130">
-        <v>2</v>
-      </c>
-      <c r="AN130">
-        <v>1</v>
-      </c>
-      <c r="AO130">
-        <v>0</v>
-      </c>
-      <c r="AP130">
-        <v>0</v>
-      </c>
-      <c r="AQ130">
-        <v>0</v>
-      </c>
-      <c r="AR130">
-        <v>0</v>
-      </c>
-      <c r="AS130">
-        <v>0</v>
-      </c>
-      <c r="AT130">
-        <v>0</v>
-      </c>
-      <c r="AU130">
-        <v>0</v>
-      </c>
-      <c r="AV130">
-        <v>0</v>
-      </c>
-      <c r="AW130">
-        <v>0</v>
-      </c>
-      <c r="AX130">
-        <v>0</v>
-      </c>
-      <c r="AY130">
-        <v>0</v>
-      </c>
-      <c r="AZ130">
-        <v>0</v>
-      </c>
-      <c r="BA130">
-        <v>0</v>
-      </c>
-      <c r="BB130">
-        <v>0</v>
-      </c>
-      <c r="BC130">
-        <v>0</v>
-      </c>
-      <c r="BD130">
-        <v>0</v>
-      </c>
-      <c r="BE130">
-        <v>0</v>
-      </c>
       <c r="BF130">
         <v>0</v>
       </c>
@@ -31876,16 +31879,16 @@
         <v>0</v>
       </c>
       <c r="BR130">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="BS130">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="BT130">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="BU130">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BV130">
         <v>0</v>
@@ -31914,211 +31917,211 @@
         <v>362</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
         <v>4</v>
       </c>
-      <c r="H131">
-        <v>3</v>
-      </c>
-      <c r="I131">
+      <c r="W131">
         <v>2</v>
       </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <v>0</v>
-      </c>
-      <c r="U131">
-        <v>0</v>
-      </c>
-      <c r="V131">
-        <v>5</v>
-      </c>
-      <c r="W131">
+      <c r="X131">
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
         <v>4</v>
       </c>
-      <c r="X131">
-        <v>3</v>
-      </c>
-      <c r="Y131">
+      <c r="AM131">
         <v>2</v>
       </c>
-      <c r="Z131">
-        <v>1</v>
-      </c>
-      <c r="AA131">
-        <v>0</v>
-      </c>
-      <c r="AB131">
-        <v>0</v>
-      </c>
-      <c r="AC131">
-        <v>0</v>
-      </c>
-      <c r="AD131">
-        <v>0</v>
-      </c>
-      <c r="AE131">
-        <v>0</v>
-      </c>
-      <c r="AF131">
-        <v>0</v>
-      </c>
-      <c r="AG131">
-        <v>0</v>
-      </c>
-      <c r="AH131">
-        <v>0</v>
-      </c>
-      <c r="AI131">
-        <v>0</v>
-      </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
-      <c r="AK131">
-        <v>0</v>
-      </c>
-      <c r="AL131">
-        <v>5</v>
-      </c>
-      <c r="AM131">
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+      <c r="BQ131">
+        <v>0</v>
+      </c>
+      <c r="BR131">
         <v>4</v>
       </c>
-      <c r="AN131">
-        <v>3</v>
-      </c>
-      <c r="AO131">
+      <c r="BS131">
         <v>2</v>
       </c>
-      <c r="AP131">
-        <v>1</v>
-      </c>
-      <c r="AQ131">
-        <v>0</v>
-      </c>
-      <c r="AR131">
-        <v>0</v>
-      </c>
-      <c r="AS131">
-        <v>0</v>
-      </c>
-      <c r="AT131">
-        <v>0</v>
-      </c>
-      <c r="AU131">
-        <v>0</v>
-      </c>
-      <c r="AV131">
-        <v>0</v>
-      </c>
-      <c r="AW131">
-        <v>0</v>
-      </c>
-      <c r="AX131">
-        <v>0</v>
-      </c>
-      <c r="AY131">
-        <v>0</v>
-      </c>
-      <c r="AZ131">
-        <v>0</v>
-      </c>
-      <c r="BA131">
-        <v>0</v>
-      </c>
-      <c r="BB131">
-        <v>0</v>
-      </c>
-      <c r="BC131">
-        <v>0</v>
-      </c>
-      <c r="BD131">
-        <v>0</v>
-      </c>
-      <c r="BE131">
-        <v>0</v>
-      </c>
-      <c r="BF131">
-        <v>0</v>
-      </c>
-      <c r="BG131">
-        <v>0</v>
-      </c>
-      <c r="BH131">
-        <v>0</v>
-      </c>
-      <c r="BI131">
-        <v>0</v>
-      </c>
-      <c r="BJ131">
-        <v>0</v>
-      </c>
-      <c r="BK131">
-        <v>0</v>
-      </c>
-      <c r="BL131">
-        <v>0</v>
-      </c>
-      <c r="BM131">
-        <v>0</v>
-      </c>
-      <c r="BN131">
-        <v>0</v>
-      </c>
-      <c r="BO131">
-        <v>0</v>
-      </c>
-      <c r="BP131">
-        <v>0</v>
-      </c>
-      <c r="BQ131">
-        <v>0</v>
-      </c>
-      <c r="BR131">
-        <v>5</v>
-      </c>
-      <c r="BS131">
-        <v>4</v>
-      </c>
       <c r="BT131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW131">
         <v>0</v>
@@ -32144,19 +32147,19 @@
         <v>363</v>
       </c>
       <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
         <v>3</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <v>2</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -32168,43 +32171,43 @@
         <v>0</v>
       </c>
       <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>5</v>
+      </c>
+      <c r="W132">
+        <v>4</v>
+      </c>
+      <c r="X132">
         <v>3</v>
       </c>
-      <c r="O132">
+      <c r="Y132">
         <v>2</v>
       </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>0</v>
-      </c>
-      <c r="R132">
-        <v>0</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-      <c r="T132">
-        <v>0</v>
-      </c>
-      <c r="U132">
-        <v>0</v>
-      </c>
-      <c r="V132">
-        <v>0</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
-      </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>0</v>
@@ -32240,19 +32243,19 @@
         <v>0</v>
       </c>
       <c r="AL132">
+        <v>5</v>
+      </c>
+      <c r="AM132">
+        <v>4</v>
+      </c>
+      <c r="AN132">
         <v>3</v>
       </c>
-      <c r="AM132">
+      <c r="AO132">
         <v>2</v>
       </c>
-      <c r="AN132">
-        <v>0</v>
-      </c>
-      <c r="AO132">
-        <v>0</v>
-      </c>
       <c r="AP132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>0</v>
@@ -32336,19 +32339,19 @@
         <v>0</v>
       </c>
       <c r="BR132">
+        <v>5</v>
+      </c>
+      <c r="BS132">
+        <v>4</v>
+      </c>
+      <c r="BT132">
         <v>3</v>
       </c>
-      <c r="BS132">
+      <c r="BU132">
         <v>2</v>
       </c>
-      <c r="BT132">
-        <v>0</v>
-      </c>
-      <c r="BU132">
-        <v>0</v>
-      </c>
       <c r="BV132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW132">
         <v>0</v>
@@ -32374,34 +32377,34 @@
         <v>364</v>
       </c>
       <c r="F133">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
       <c r="O133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -32422,154 +32425,154 @@
         <v>0</v>
       </c>
       <c r="V133">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
         <v>3</v>
       </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-      <c r="AA133">
-        <v>0</v>
-      </c>
-      <c r="AB133">
-        <v>0</v>
-      </c>
-      <c r="AC133">
-        <v>0</v>
-      </c>
-      <c r="AD133">
-        <v>0</v>
-      </c>
-      <c r="AE133">
-        <v>0</v>
-      </c>
-      <c r="AF133">
-        <v>0</v>
-      </c>
-      <c r="AG133">
-        <v>0</v>
-      </c>
-      <c r="AH133">
-        <v>0</v>
-      </c>
-      <c r="AI133">
-        <v>0</v>
-      </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
-      <c r="AK133">
-        <v>0</v>
-      </c>
-      <c r="AL133">
-        <v>5</v>
-      </c>
       <c r="AM133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>0</v>
+      </c>
+      <c r="AR133">
+        <v>0</v>
+      </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
+      <c r="AU133">
+        <v>0</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+      <c r="BQ133">
+        <v>0</v>
+      </c>
+      <c r="BR133">
         <v>3</v>
       </c>
-      <c r="AO133">
-        <v>0</v>
-      </c>
-      <c r="AP133">
-        <v>0</v>
-      </c>
-      <c r="AQ133">
-        <v>0</v>
-      </c>
-      <c r="AR133">
-        <v>0</v>
-      </c>
-      <c r="AS133">
-        <v>0</v>
-      </c>
-      <c r="AT133">
-        <v>0</v>
-      </c>
-      <c r="AU133">
-        <v>0</v>
-      </c>
-      <c r="AV133">
-        <v>0</v>
-      </c>
-      <c r="AW133">
-        <v>0</v>
-      </c>
-      <c r="AX133">
-        <v>0</v>
-      </c>
-      <c r="AY133">
-        <v>0</v>
-      </c>
-      <c r="AZ133">
-        <v>0</v>
-      </c>
-      <c r="BA133">
-        <v>0</v>
-      </c>
-      <c r="BB133">
-        <v>0</v>
-      </c>
-      <c r="BC133">
-        <v>0</v>
-      </c>
-      <c r="BD133">
-        <v>0</v>
-      </c>
-      <c r="BE133">
-        <v>0</v>
-      </c>
-      <c r="BF133">
-        <v>0</v>
-      </c>
-      <c r="BG133">
-        <v>0</v>
-      </c>
-      <c r="BH133">
-        <v>0</v>
-      </c>
-      <c r="BI133">
-        <v>0</v>
-      </c>
-      <c r="BJ133">
-        <v>0</v>
-      </c>
-      <c r="BK133">
-        <v>0</v>
-      </c>
-      <c r="BL133">
-        <v>0</v>
-      </c>
-      <c r="BM133">
-        <v>0</v>
-      </c>
-      <c r="BN133">
-        <v>0</v>
-      </c>
-      <c r="BO133">
-        <v>0</v>
-      </c>
-      <c r="BP133">
-        <v>0</v>
-      </c>
-      <c r="BQ133">
-        <v>0</v>
-      </c>
-      <c r="BR133">
-        <v>0</v>
-      </c>
       <c r="BS133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT133">
         <v>0</v>
@@ -32604,16 +32607,16 @@
         <v>365</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -32652,16 +32655,16 @@
         <v>0</v>
       </c>
       <c r="V134">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X134">
         <v>3</v>
       </c>
       <c r="Y134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z134">
         <v>0</v>
@@ -32700,13 +32703,13 @@
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM134">
         <v>0</v>
       </c>
       <c r="AN134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO134">
         <v>0</v>
@@ -32796,16 +32799,16 @@
         <v>0</v>
       </c>
       <c r="BR134">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BS134">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV134">
         <v>0</v>
@@ -32834,16 +32837,16 @@
         <v>366</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -32855,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -32882,16 +32885,16 @@
         <v>0</v>
       </c>
       <c r="V135">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -32903,7 +32906,7 @@
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD135">
         <v>0</v>
@@ -32951,7 +32954,7 @@
         <v>0</v>
       </c>
       <c r="AS135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT135">
         <v>0</v>
@@ -33026,16 +33029,16 @@
         <v>0</v>
       </c>
       <c r="BR135">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV135">
         <v>0</v>
@@ -33047,7 +33050,7 @@
         <v>0</v>
       </c>
       <c r="BY135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="2:77">
@@ -33064,13 +33067,13 @@
         <v>367</v>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -33085,7 +33088,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -33112,13 +33115,13 @@
         <v>0</v>
       </c>
       <c r="V136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y136">
         <v>0</v>
@@ -33133,7 +33136,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD136">
         <v>0</v>
@@ -33181,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="AS136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT136">
         <v>0</v>
@@ -33256,13 +33259,13 @@
         <v>0</v>
       </c>
       <c r="BR136">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU136">
         <v>0</v>
@@ -33277,7 +33280,7 @@
         <v>0</v>
       </c>
       <c r="BY136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:77">
@@ -33294,208 +33297,208 @@
         <v>368</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>6</v>
+      </c>
+      <c r="W137">
         <v>4</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
-      <c r="V137">
-        <v>1</v>
-      </c>
-      <c r="W137">
-        <v>3</v>
-      </c>
       <c r="X137">
+        <v>1</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
+      <c r="AS137">
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+      <c r="BQ137">
+        <v>0</v>
+      </c>
+      <c r="BR137">
+        <v>6</v>
+      </c>
+      <c r="BS137">
         <v>4</v>
       </c>
-      <c r="Y137">
-        <v>1</v>
-      </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
-        <v>0</v>
-      </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
-      <c r="AC137">
-        <v>0</v>
-      </c>
-      <c r="AD137">
-        <v>0</v>
-      </c>
-      <c r="AE137">
-        <v>0</v>
-      </c>
-      <c r="AF137">
-        <v>0</v>
-      </c>
-      <c r="AG137">
-        <v>0</v>
-      </c>
-      <c r="AH137">
-        <v>0</v>
-      </c>
-      <c r="AI137">
-        <v>0</v>
-      </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
-      <c r="AK137">
-        <v>0</v>
-      </c>
-      <c r="AL137">
-        <v>0</v>
-      </c>
-      <c r="AM137">
-        <v>0</v>
-      </c>
-      <c r="AN137">
-        <v>0</v>
-      </c>
-      <c r="AO137">
-        <v>0</v>
-      </c>
-      <c r="AP137">
-        <v>0</v>
-      </c>
-      <c r="AQ137">
-        <v>0</v>
-      </c>
-      <c r="AR137">
-        <v>0</v>
-      </c>
-      <c r="AS137">
-        <v>0</v>
-      </c>
-      <c r="AT137">
-        <v>0</v>
-      </c>
-      <c r="AU137">
-        <v>0</v>
-      </c>
-      <c r="AV137">
-        <v>0</v>
-      </c>
-      <c r="AW137">
-        <v>0</v>
-      </c>
-      <c r="AX137">
-        <v>0</v>
-      </c>
-      <c r="AY137">
-        <v>0</v>
-      </c>
-      <c r="AZ137">
-        <v>0</v>
-      </c>
-      <c r="BA137">
-        <v>0</v>
-      </c>
-      <c r="BB137">
-        <v>0</v>
-      </c>
-      <c r="BC137">
-        <v>0</v>
-      </c>
-      <c r="BD137">
-        <v>0</v>
-      </c>
-      <c r="BE137">
-        <v>0</v>
-      </c>
-      <c r="BF137">
-        <v>0</v>
-      </c>
-      <c r="BG137">
-        <v>0</v>
-      </c>
-      <c r="BH137">
-        <v>0</v>
-      </c>
-      <c r="BI137">
-        <v>0</v>
-      </c>
-      <c r="BJ137">
-        <v>0</v>
-      </c>
-      <c r="BK137">
-        <v>0</v>
-      </c>
-      <c r="BL137">
-        <v>0</v>
-      </c>
-      <c r="BM137">
-        <v>0</v>
-      </c>
-      <c r="BN137">
-        <v>0</v>
-      </c>
-      <c r="BO137">
-        <v>0</v>
-      </c>
-      <c r="BP137">
-        <v>0</v>
-      </c>
-      <c r="BQ137">
-        <v>0</v>
-      </c>
-      <c r="BR137">
-        <v>1</v>
-      </c>
-      <c r="BS137">
-        <v>3</v>
-      </c>
       <c r="BT137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV137">
         <v>0</v>
@@ -33524,10 +33527,10 @@
         <v>369</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -33572,10 +33575,10 @@
         <v>0</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X138">
         <v>4</v>
@@ -33716,10 +33719,10 @@
         <v>0</v>
       </c>
       <c r="BR138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT138">
         <v>4</v>
@@ -33754,214 +33757,214 @@
         <v>370</v>
       </c>
       <c r="F139">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H139">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
         <v>5</v>
       </c>
-      <c r="J139">
+      <c r="X139">
+        <v>4</v>
+      </c>
+      <c r="Y139">
+        <v>1</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>0</v>
+      </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
+      <c r="AS139">
+        <v>0</v>
+      </c>
+      <c r="AT139">
+        <v>0</v>
+      </c>
+      <c r="AU139">
+        <v>0</v>
+      </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>0</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+      <c r="BQ139">
+        <v>0</v>
+      </c>
+      <c r="BR139">
         <v>2</v>
       </c>
-      <c r="K139">
-        <v>2</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>0</v>
-      </c>
-      <c r="T139">
-        <v>0</v>
-      </c>
-      <c r="U139">
-        <v>0</v>
-      </c>
-      <c r="V139">
-        <v>13</v>
-      </c>
-      <c r="W139">
-        <v>18</v>
-      </c>
-      <c r="X139">
-        <v>11</v>
-      </c>
-      <c r="Y139">
+      <c r="BS139">
         <v>5</v>
       </c>
-      <c r="Z139">
-        <v>2</v>
-      </c>
-      <c r="AA139">
-        <v>2</v>
-      </c>
-      <c r="AB139">
-        <v>0</v>
-      </c>
-      <c r="AC139">
-        <v>0</v>
-      </c>
-      <c r="AD139">
-        <v>0</v>
-      </c>
-      <c r="AE139">
-        <v>0</v>
-      </c>
-      <c r="AF139">
-        <v>0</v>
-      </c>
-      <c r="AG139">
-        <v>0</v>
-      </c>
-      <c r="AH139">
-        <v>0</v>
-      </c>
-      <c r="AI139">
-        <v>0</v>
-      </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
-      <c r="AK139">
-        <v>0</v>
-      </c>
-      <c r="AL139">
-        <v>0</v>
-      </c>
-      <c r="AM139">
-        <v>14</v>
-      </c>
-      <c r="AN139">
-        <v>11</v>
-      </c>
-      <c r="AO139">
-        <v>5</v>
-      </c>
-      <c r="AP139">
-        <v>2</v>
-      </c>
-      <c r="AQ139">
-        <v>2</v>
-      </c>
-      <c r="AR139">
-        <v>0</v>
-      </c>
-      <c r="AS139">
-        <v>0</v>
-      </c>
-      <c r="AT139">
-        <v>0</v>
-      </c>
-      <c r="AU139">
-        <v>0</v>
-      </c>
-      <c r="AV139">
-        <v>0</v>
-      </c>
-      <c r="AW139">
-        <v>0</v>
-      </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>0</v>
-      </c>
-      <c r="AZ139">
-        <v>0</v>
-      </c>
-      <c r="BA139">
-        <v>0</v>
-      </c>
-      <c r="BB139">
-        <v>0</v>
-      </c>
-      <c r="BC139">
-        <v>0</v>
-      </c>
-      <c r="BD139">
-        <v>0</v>
-      </c>
-      <c r="BE139">
-        <v>0</v>
-      </c>
-      <c r="BF139">
-        <v>0</v>
-      </c>
-      <c r="BG139">
-        <v>0</v>
-      </c>
-      <c r="BH139">
-        <v>0</v>
-      </c>
-      <c r="BI139">
-        <v>0</v>
-      </c>
-      <c r="BJ139">
-        <v>0</v>
-      </c>
-      <c r="BK139">
-        <v>0</v>
-      </c>
-      <c r="BL139">
-        <v>0</v>
-      </c>
-      <c r="BM139">
-        <v>0</v>
-      </c>
-      <c r="BN139">
-        <v>0</v>
-      </c>
-      <c r="BO139">
-        <v>0</v>
-      </c>
-      <c r="BP139">
-        <v>0</v>
-      </c>
-      <c r="BQ139">
-        <v>0</v>
-      </c>
-      <c r="BR139">
-        <v>13</v>
-      </c>
-      <c r="BS139">
-        <v>18</v>
-      </c>
       <c r="BT139">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BU139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX139">
         <v>0</v>
@@ -33984,22 +33987,22 @@
         <v>371</v>
       </c>
       <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140">
+        <v>18</v>
+      </c>
+      <c r="H140">
+        <v>11</v>
+      </c>
+      <c r="I140">
         <v>5</v>
       </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -34032,22 +34035,22 @@
         <v>0</v>
       </c>
       <c r="V140">
+        <v>13</v>
+      </c>
+      <c r="W140">
+        <v>18</v>
+      </c>
+      <c r="X140">
+        <v>11</v>
+      </c>
+      <c r="Y140">
         <v>5</v>
       </c>
-      <c r="W140">
-        <v>1</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
       <c r="Z140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB140">
         <v>0</v>
@@ -34083,19 +34086,19 @@
         <v>0</v>
       </c>
       <c r="AM140">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AN140">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR140">
         <v>0</v>
@@ -34176,22 +34179,22 @@
         <v>0</v>
       </c>
       <c r="BR140">
+        <v>13</v>
+      </c>
+      <c r="BS140">
+        <v>18</v>
+      </c>
+      <c r="BT140">
+        <v>11</v>
+      </c>
+      <c r="BU140">
         <v>5</v>
       </c>
-      <c r="BS140">
-        <v>1</v>
-      </c>
-      <c r="BT140">
-        <v>0</v>
-      </c>
-      <c r="BU140">
-        <v>0</v>
-      </c>
       <c r="BV140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX140">
         <v>0</v>
@@ -34214,214 +34217,214 @@
         <v>372</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G141">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
         <v>5</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141">
-        <v>9</v>
-      </c>
-      <c r="P141">
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>1</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>0</v>
+      </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
+      <c r="AS141">
+        <v>0</v>
+      </c>
+      <c r="AT141">
+        <v>0</v>
+      </c>
+      <c r="AU141">
+        <v>0</v>
+      </c>
+      <c r="AV141">
+        <v>0</v>
+      </c>
+      <c r="AW141">
+        <v>0</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+      <c r="BQ141">
+        <v>0</v>
+      </c>
+      <c r="BR141">
         <v>5</v>
       </c>
-      <c r="Q141">
-        <v>1</v>
-      </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="S141">
-        <v>1</v>
-      </c>
-      <c r="T141">
-        <v>0</v>
-      </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-      <c r="V141">
-        <v>0</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-      <c r="AB141">
-        <v>0</v>
-      </c>
-      <c r="AC141">
-        <v>0</v>
-      </c>
-      <c r="AD141">
-        <v>0</v>
-      </c>
-      <c r="AE141">
-        <v>0</v>
-      </c>
-      <c r="AF141">
-        <v>0</v>
-      </c>
-      <c r="AG141">
-        <v>0</v>
-      </c>
-      <c r="AH141">
-        <v>0</v>
-      </c>
-      <c r="AI141">
-        <v>0</v>
-      </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
-      <c r="AK141">
-        <v>0</v>
-      </c>
-      <c r="AL141">
-        <v>1</v>
-      </c>
-      <c r="AM141">
-        <v>9</v>
-      </c>
-      <c r="AN141">
-        <v>5</v>
-      </c>
-      <c r="AO141">
-        <v>1</v>
-      </c>
-      <c r="AP141">
-        <v>0</v>
-      </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
-      <c r="AR141">
-        <v>0</v>
-      </c>
-      <c r="AS141">
-        <v>0</v>
-      </c>
-      <c r="AT141">
-        <v>0</v>
-      </c>
-      <c r="AU141">
-        <v>0</v>
-      </c>
-      <c r="AV141">
-        <v>0</v>
-      </c>
-      <c r="AW141">
-        <v>0</v>
-      </c>
-      <c r="AX141">
-        <v>0</v>
-      </c>
-      <c r="AY141">
-        <v>0</v>
-      </c>
-      <c r="AZ141">
-        <v>0</v>
-      </c>
-      <c r="BA141">
-        <v>0</v>
-      </c>
-      <c r="BB141">
-        <v>0</v>
-      </c>
-      <c r="BC141">
-        <v>0</v>
-      </c>
-      <c r="BD141">
-        <v>0</v>
-      </c>
-      <c r="BE141">
-        <v>0</v>
-      </c>
-      <c r="BF141">
-        <v>0</v>
-      </c>
-      <c r="BG141">
-        <v>0</v>
-      </c>
-      <c r="BH141">
-        <v>0</v>
-      </c>
-      <c r="BI141">
-        <v>0</v>
-      </c>
-      <c r="BJ141">
-        <v>0</v>
-      </c>
-      <c r="BK141">
-        <v>0</v>
-      </c>
-      <c r="BL141">
-        <v>0</v>
-      </c>
-      <c r="BM141">
-        <v>0</v>
-      </c>
-      <c r="BN141">
-        <v>0</v>
-      </c>
-      <c r="BO141">
-        <v>0</v>
-      </c>
-      <c r="BP141">
-        <v>0</v>
-      </c>
-      <c r="BQ141">
-        <v>0</v>
-      </c>
-      <c r="BR141">
-        <v>1</v>
-      </c>
       <c r="BS141">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BT141">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV141">
         <v>0</v>
       </c>
       <c r="BW141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX141">
         <v>0</v>
@@ -34447,19 +34450,19 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -34468,22 +34471,22 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R142">
         <v>0</v>
       </c>
       <c r="S142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T142">
         <v>0</v>
@@ -34492,19 +34495,19 @@
         <v>0</v>
       </c>
       <c r="V142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y142">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
         <v>0</v>
@@ -34543,19 +34546,19 @@
         <v>1</v>
       </c>
       <c r="AM142">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AN142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>0</v>
@@ -34639,19 +34642,19 @@
         <v>1</v>
       </c>
       <c r="BS142">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BT142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BV142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX142">
         <v>0</v>
@@ -34677,16 +34680,16 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -34725,16 +34728,16 @@
         <v>1</v>
       </c>
       <c r="W143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>0</v>
@@ -34770,19 +34773,19 @@
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO143">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>0</v>
@@ -34869,16 +34872,16 @@
         <v>1</v>
       </c>
       <c r="BS143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BU143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BV143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW143">
         <v>0</v>
@@ -34904,19 +34907,19 @@
         <v>375</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -34928,19 +34931,19 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O144">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144">
         <v>0</v>
@@ -34952,16 +34955,16 @@
         <v>0</v>
       </c>
       <c r="V144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z144">
         <v>0</v>
@@ -35000,19 +35003,19 @@
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM144">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AO144">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ144">
         <v>0</v>
@@ -35096,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="BR144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS144">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BT144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BU144">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BV144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW144">
         <v>0</v>
@@ -35134,19 +35137,19 @@
         <v>376</v>
       </c>
       <c r="F145">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G145">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H145">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -35158,19 +35161,19 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -35182,67 +35185,67 @@
         <v>0</v>
       </c>
       <c r="V145">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="W145">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="X145">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>4</v>
+      </c>
+      <c r="AM145">
+        <v>13</v>
+      </c>
+      <c r="AN145">
         <v>9</v>
       </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <v>0</v>
-      </c>
-      <c r="AD145">
-        <v>11</v>
-      </c>
-      <c r="AE145">
-        <v>1</v>
-      </c>
-      <c r="AF145">
-        <v>0</v>
-      </c>
-      <c r="AG145">
-        <v>1</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-      <c r="AI145">
-        <v>0</v>
-      </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
-      <c r="AK145">
-        <v>0</v>
-      </c>
-      <c r="AL145">
-        <v>64</v>
-      </c>
-      <c r="AM145">
-        <v>67</v>
-      </c>
-      <c r="AN145">
-        <v>56</v>
-      </c>
       <c r="AO145">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AP145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
         <v>0</v>
@@ -35326,19 +35329,19 @@
         <v>0</v>
       </c>
       <c r="BR145">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="BS145">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="BT145">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="BU145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BV145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW145">
         <v>0</v>
@@ -35364,219 +35367,449 @@
         <v>377</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G146">
+        <v>75</v>
+      </c>
+      <c r="H146">
+        <v>69</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>74</v>
+      </c>
+      <c r="W146">
+        <v>74</v>
+      </c>
+      <c r="X146">
+        <v>69</v>
+      </c>
+      <c r="Y146">
+        <v>9</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <v>1</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>1</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>64</v>
+      </c>
+      <c r="AM146">
+        <v>67</v>
+      </c>
+      <c r="AN146">
+        <v>56</v>
+      </c>
+      <c r="AO146">
         <v>7</v>
       </c>
-      <c r="H146">
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>0</v>
+      </c>
+      <c r="AR146">
+        <v>0</v>
+      </c>
+      <c r="AS146">
+        <v>0</v>
+      </c>
+      <c r="AT146">
+        <v>0</v>
+      </c>
+      <c r="AU146">
+        <v>0</v>
+      </c>
+      <c r="AV146">
+        <v>0</v>
+      </c>
+      <c r="AW146">
+        <v>0</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+      <c r="BQ146">
+        <v>0</v>
+      </c>
+      <c r="BR146">
+        <v>85</v>
+      </c>
+      <c r="BS146">
+        <v>75</v>
+      </c>
+      <c r="BT146">
+        <v>69</v>
+      </c>
+      <c r="BU146">
+        <v>10</v>
+      </c>
+      <c r="BV146">
+        <v>0</v>
+      </c>
+      <c r="BW146">
+        <v>0</v>
+      </c>
+      <c r="BX146">
+        <v>0</v>
+      </c>
+      <c r="BY146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:77">
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147">
+        <v>2025</v>
+      </c>
+      <c r="E147" t="s">
+        <v>378</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>7</v>
+      </c>
+      <c r="H147">
         <v>3</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>1</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-      <c r="O146">
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
         <v>7</v>
       </c>
-      <c r="P146">
+      <c r="P147">
         <v>3</v>
       </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1</v>
-      </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-      <c r="T146">
-        <v>0</v>
-      </c>
-      <c r="U146">
-        <v>0</v>
-      </c>
-      <c r="V146">
-        <v>0</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <v>0</v>
-      </c>
-      <c r="Y146">
-        <v>0</v>
-      </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
-        <v>0</v>
-      </c>
-      <c r="AB146">
-        <v>0</v>
-      </c>
-      <c r="AC146">
-        <v>0</v>
-      </c>
-      <c r="AD146">
-        <v>0</v>
-      </c>
-      <c r="AE146">
-        <v>0</v>
-      </c>
-      <c r="AF146">
-        <v>0</v>
-      </c>
-      <c r="AG146">
-        <v>0</v>
-      </c>
-      <c r="AH146">
-        <v>0</v>
-      </c>
-      <c r="AI146">
-        <v>0</v>
-      </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
-      <c r="AK146">
-        <v>0</v>
-      </c>
-      <c r="AL146">
-        <v>0</v>
-      </c>
-      <c r="AM146">
-        <v>0</v>
-      </c>
-      <c r="AN146">
-        <v>0</v>
-      </c>
-      <c r="AO146">
-        <v>0</v>
-      </c>
-      <c r="AP146">
-        <v>0</v>
-      </c>
-      <c r="AQ146">
-        <v>0</v>
-      </c>
-      <c r="AR146">
-        <v>0</v>
-      </c>
-      <c r="AS146">
-        <v>0</v>
-      </c>
-      <c r="AT146">
-        <v>0</v>
-      </c>
-      <c r="AU146">
-        <v>0</v>
-      </c>
-      <c r="AV146">
-        <v>0</v>
-      </c>
-      <c r="AW146">
-        <v>0</v>
-      </c>
-      <c r="AX146">
-        <v>0</v>
-      </c>
-      <c r="AY146">
-        <v>0</v>
-      </c>
-      <c r="AZ146">
-        <v>0</v>
-      </c>
-      <c r="BA146">
-        <v>0</v>
-      </c>
-      <c r="BB146">
-        <v>0</v>
-      </c>
-      <c r="BC146">
-        <v>0</v>
-      </c>
-      <c r="BD146">
-        <v>0</v>
-      </c>
-      <c r="BE146">
-        <v>0</v>
-      </c>
-      <c r="BF146">
-        <v>0</v>
-      </c>
-      <c r="BG146">
-        <v>0</v>
-      </c>
-      <c r="BH146">
-        <v>0</v>
-      </c>
-      <c r="BI146">
-        <v>0</v>
-      </c>
-      <c r="BJ146">
-        <v>0</v>
-      </c>
-      <c r="BK146">
-        <v>0</v>
-      </c>
-      <c r="BL146">
-        <v>0</v>
-      </c>
-      <c r="BM146">
-        <v>0</v>
-      </c>
-      <c r="BN146">
-        <v>0</v>
-      </c>
-      <c r="BO146">
-        <v>0</v>
-      </c>
-      <c r="BP146">
-        <v>0</v>
-      </c>
-      <c r="BQ146">
-        <v>0</v>
-      </c>
-      <c r="BR146">
-        <v>1</v>
-      </c>
-      <c r="BS146">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
+      <c r="AQ147">
+        <v>0</v>
+      </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
+      <c r="AS147">
+        <v>0</v>
+      </c>
+      <c r="AT147">
+        <v>0</v>
+      </c>
+      <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="AV147">
+        <v>0</v>
+      </c>
+      <c r="AW147">
+        <v>0</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+      <c r="BQ147">
+        <v>0</v>
+      </c>
+      <c r="BR147">
+        <v>1</v>
+      </c>
+      <c r="BS147">
         <v>7</v>
       </c>
-      <c r="BT146">
+      <c r="BT147">
         <v>3</v>
       </c>
-      <c r="BU146">
-        <v>0</v>
-      </c>
-      <c r="BV146">
-        <v>1</v>
-      </c>
-      <c r="BW146">
-        <v>0</v>
-      </c>
-      <c r="BX146">
-        <v>0</v>
-      </c>
-      <c r="BY146">
+      <c r="BU147">
+        <v>0</v>
+      </c>
+      <c r="BV147">
+        <v>1</v>
+      </c>
+      <c r="BW147">
+        <v>0</v>
+      </c>
+      <c r="BX147">
+        <v>0</v>
+      </c>
+      <c r="BY147">
         <v>0</v>
       </c>
     </row>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -54368,7 +54368,7 @@
         <v>6</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -54380,55 +54380,55 @@
         <v>2</v>
       </c>
       <c r="L228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228">
         <v>0</v>
       </c>
       <c r="N228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
         <v>6</v>
       </c>
-      <c r="P228">
-        <v>0</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>0</v>
-      </c>
-      <c r="S228">
+      <c r="X228">
+        <v>4</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
         <v>2</v>
       </c>
-      <c r="T228">
-        <v>0</v>
-      </c>
-      <c r="U228">
-        <v>0</v>
-      </c>
-      <c r="V228">
-        <v>0</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
-      </c>
       <c r="AB228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC228">
         <v>0</v>
@@ -54464,7 +54464,7 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO228">
         <v>0</v>
@@ -54476,7 +54476,7 @@
         <v>2</v>
       </c>
       <c r="AR228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS228">
         <v>0</v>
@@ -54557,10 +54557,10 @@
         <v>1</v>
       </c>
       <c r="BS228">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU228">
         <v>0</v>
@@ -54572,7 +54572,7 @@
         <v>2</v>
       </c>
       <c r="BX228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY228">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -42865,16 +42865,16 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -42886,10 +42886,10 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -42910,19 +42910,19 @@
         <v>0</v>
       </c>
       <c r="V178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y178">
         <v>0</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA178">
         <v>0</v>
@@ -42961,16 +42961,16 @@
         <v>1</v>
       </c>
       <c r="AM178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO178">
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ178">
         <v>0</v>
@@ -43057,16 +43057,16 @@
         <v>1</v>
       </c>
       <c r="BS178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU178">
         <v>0</v>
       </c>
       <c r="BV178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW178">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -14808,31 +14808,31 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -14850,25 +14850,25 @@
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y56">
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -14904,19 +14904,19 @@
         <v>1</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO56">
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -15000,19 +15000,19 @@
         <v>1</v>
       </c>
       <c r="BT56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU56">
         <v>0</v>
       </c>
       <c r="BV56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW56">
         <v>0</v>
       </c>
       <c r="BX56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY56">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -53908,19 +53908,19 @@
         <v>3</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M226">
         <v>0</v>
@@ -53929,46 +53929,46 @@
         <v>0</v>
       </c>
       <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
         <v>3</v>
       </c>
-      <c r="P226">
-        <v>1</v>
-      </c>
-      <c r="Q226">
-        <v>0</v>
-      </c>
-      <c r="R226">
-        <v>0</v>
-      </c>
-      <c r="S226">
-        <v>0</v>
-      </c>
-      <c r="T226">
-        <v>0</v>
-      </c>
-      <c r="U226">
-        <v>0</v>
-      </c>
-      <c r="V226">
-        <v>0</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
       <c r="X226">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC226">
         <v>0</v>
@@ -54004,19 +54004,19 @@
         <v>3</v>
       </c>
       <c r="AN226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS226">
         <v>0</v>
@@ -54100,19 +54100,19 @@
         <v>3</v>
       </c>
       <c r="BT226">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BU226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY226">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -26308,67 +26308,67 @@
         <v>6</v>
       </c>
       <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>2</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>3</v>
-      </c>
-      <c r="O106">
+      <c r="W106">
         <v>6</v>
       </c>
-      <c r="P106">
-        <v>3</v>
-      </c>
-      <c r="Q106">
-        <v>2</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>2</v>
-      </c>
-      <c r="T106">
-        <v>1</v>
-      </c>
-      <c r="U106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
       <c r="X106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -26404,16 +26404,16 @@
         <v>6</v>
       </c>
       <c r="AN106">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AR106">
         <v>1</v>
@@ -26500,16 +26500,16 @@
         <v>6</v>
       </c>
       <c r="BT106">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BU106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BV106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW106">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BX106">
         <v>1</v>
@@ -47005,70 +47005,70 @@
         <v>4</v>
       </c>
       <c r="G196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+      <c r="V196">
         <v>4</v>
       </c>
-      <c r="O196">
-        <v>5</v>
-      </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-      <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196">
-        <v>0</v>
-      </c>
-      <c r="S196">
-        <v>0</v>
-      </c>
-      <c r="T196">
-        <v>0</v>
-      </c>
-      <c r="U196">
-        <v>0</v>
-      </c>
-      <c r="V196">
-        <v>0</v>
-      </c>
       <c r="W196">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC196">
         <v>0</v>
@@ -47101,22 +47101,22 @@
         <v>4</v>
       </c>
       <c r="AM196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS196">
         <v>0</v>
@@ -47197,22 +47197,22 @@
         <v>4</v>
       </c>
       <c r="BS196">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BT196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY196">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -21475,70 +21475,70 @@
         <v>3</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
         <v>2</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
         <v>3</v>
       </c>
-      <c r="O85">
-        <v>7</v>
-      </c>
-      <c r="P85">
+      <c r="W85">
+        <v>5</v>
+      </c>
+      <c r="X85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
         <v>2</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
+      <c r="Z85">
         <v>2</v>
       </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
-      </c>
-      <c r="Y85">
-        <v>0</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
       <c r="AA85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -21571,22 +21571,22 @@
         <v>3</v>
       </c>
       <c r="AM85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN85">
+        <v>6</v>
+      </c>
+      <c r="AO85">
         <v>2</v>
       </c>
-      <c r="AO85">
-        <v>0</v>
-      </c>
       <c r="AP85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>2</v>
       </c>
       <c r="AR85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS85">
         <v>0</v>
@@ -21667,22 +21667,22 @@
         <v>3</v>
       </c>
       <c r="BS85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BT85">
+        <v>6</v>
+      </c>
+      <c r="BU85">
         <v>2</v>
       </c>
-      <c r="BU85">
-        <v>0</v>
-      </c>
       <c r="BV85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW85">
         <v>2</v>
       </c>
       <c r="BX85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY85">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -60808,31 +60808,31 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J256">
         <v>0</v>
       </c>
       <c r="K256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <v>0</v>
       </c>
       <c r="N256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -60841,7 +60841,7 @@
         <v>0</v>
       </c>
       <c r="S256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T256">
         <v>0</v>
@@ -60850,25 +60850,25 @@
         <v>0</v>
       </c>
       <c r="V256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X256">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z256">
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC256">
         <v>0</v>
@@ -60904,19 +60904,19 @@
         <v>1</v>
       </c>
       <c r="AN256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP256">
         <v>0</v>
       </c>
       <c r="AQ256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS256">
         <v>0</v>
@@ -61000,19 +61000,19 @@
         <v>1</v>
       </c>
       <c r="BT256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU256">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV256">
         <v>0</v>
       </c>
       <c r="BW256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BX256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY256">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -93847,13 +93847,13 @@
         <v>478</v>
       </c>
       <c r="F361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G361">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I361">
         <v>0</v>
@@ -93895,13 +93895,13 @@
         <v>0</v>
       </c>
       <c r="V361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W361">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X361">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y361">
         <v>0</v>
@@ -94039,13 +94039,13 @@
         <v>0</v>
       </c>
       <c r="BR361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT361">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU361">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -45587,13 +45587,13 @@
         <v>359</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H171">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -45635,13 +45635,13 @@
         <v>0</v>
       </c>
       <c r="V171">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W171">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X171">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y171">
         <v>1</v>
@@ -45779,13 +45779,13 @@
         <v>0</v>
       </c>
       <c r="BR171">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BS171">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BT171">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BU171">
         <v>1</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -93847,13 +93847,13 @@
         <v>478</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I361">
         <v>0</v>
@@ -93895,13 +93895,13 @@
         <v>0</v>
       </c>
       <c r="V361">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W361">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X361">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y361">
         <v>0</v>
@@ -94039,13 +94039,13 @@
         <v>0</v>
       </c>
       <c r="BR361">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS361">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT361">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU361">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -64891,16 +64891,16 @@
         <v>405</v>
       </c>
       <c r="F247">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -64939,16 +64939,16 @@
         <v>0</v>
       </c>
       <c r="V247">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W247">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X247">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z247">
         <v>0</v>
@@ -64987,16 +64987,16 @@
         <v>0</v>
       </c>
       <c r="AL247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP247">
         <v>0</v>
@@ -65083,16 +65083,16 @@
         <v>0</v>
       </c>
       <c r="BR247">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BS247">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BT247">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BU247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV247">
         <v>0</v>
@@ -81147,64 +81147,64 @@
         <v>449</v>
       </c>
       <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>0</v>
+      </c>
+      <c r="S311">
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+      <c r="V311">
         <v>19</v>
       </c>
-      <c r="G311">
+      <c r="W311">
         <v>12</v>
       </c>
-      <c r="H311">
+      <c r="X311">
         <v>9</v>
       </c>
-      <c r="I311">
-        <v>1</v>
-      </c>
-      <c r="J311">
-        <v>0</v>
-      </c>
-      <c r="K311">
-        <v>0</v>
-      </c>
-      <c r="L311">
-        <v>0</v>
-      </c>
-      <c r="M311">
-        <v>0</v>
-      </c>
-      <c r="N311">
-        <v>19</v>
-      </c>
-      <c r="O311">
-        <v>12</v>
-      </c>
-      <c r="P311">
-        <v>9</v>
-      </c>
-      <c r="Q311">
-        <v>1</v>
-      </c>
-      <c r="R311">
-        <v>0</v>
-      </c>
-      <c r="S311">
-        <v>0</v>
-      </c>
-      <c r="T311">
-        <v>0</v>
-      </c>
-      <c r="U311">
-        <v>0</v>
-      </c>
-      <c r="V311">
-        <v>0</v>
-      </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
       <c r="Y311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z311">
         <v>0</v>
@@ -81246,13 +81246,13 @@
         <v>3</v>
       </c>
       <c r="AM311">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AN311">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP311">
         <v>0</v>
@@ -81339,16 +81339,16 @@
         <v>0</v>
       </c>
       <c r="BR311">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BS311">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BT311">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BU311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV311">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -47111,16 +47111,16 @@
         <v>362</v>
       </c>
       <c r="F177">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -47210,13 +47210,13 @@
         <v>0</v>
       </c>
       <c r="AM177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN177">
         <v>0</v>
       </c>
       <c r="AO177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP177">
         <v>0</v>
@@ -62097,13 +62097,13 @@
         <v>398</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G236">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -62121,7 +62121,7 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O236">
         <v>0</v>
@@ -62148,10 +62148,10 @@
         <v>0</v>
       </c>
       <c r="W236">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X236">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y236">
         <v>0</v>
@@ -62196,106 +62196,106 @@
         <v>0</v>
       </c>
       <c r="AM236">
+        <v>0</v>
+      </c>
+      <c r="AN236">
+        <v>0</v>
+      </c>
+      <c r="AO236">
+        <v>0</v>
+      </c>
+      <c r="AP236">
+        <v>0</v>
+      </c>
+      <c r="AQ236">
+        <v>0</v>
+      </c>
+      <c r="AR236">
+        <v>0</v>
+      </c>
+      <c r="AS236">
+        <v>0</v>
+      </c>
+      <c r="AT236">
+        <v>0</v>
+      </c>
+      <c r="AU236">
+        <v>0</v>
+      </c>
+      <c r="AV236">
+        <v>0</v>
+      </c>
+      <c r="AW236">
+        <v>0</v>
+      </c>
+      <c r="AX236">
+        <v>0</v>
+      </c>
+      <c r="AY236">
+        <v>0</v>
+      </c>
+      <c r="AZ236">
+        <v>0</v>
+      </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
+      <c r="BB236">
+        <v>0</v>
+      </c>
+      <c r="BC236">
+        <v>0</v>
+      </c>
+      <c r="BD236">
+        <v>0</v>
+      </c>
+      <c r="BE236">
+        <v>0</v>
+      </c>
+      <c r="BF236">
+        <v>0</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>0</v>
+      </c>
+      <c r="BI236">
+        <v>0</v>
+      </c>
+      <c r="BJ236">
+        <v>0</v>
+      </c>
+      <c r="BK236">
+        <v>0</v>
+      </c>
+      <c r="BL236">
+        <v>0</v>
+      </c>
+      <c r="BM236">
+        <v>0</v>
+      </c>
+      <c r="BN236">
+        <v>0</v>
+      </c>
+      <c r="BO236">
+        <v>0</v>
+      </c>
+      <c r="BP236">
+        <v>0</v>
+      </c>
+      <c r="BQ236">
+        <v>0</v>
+      </c>
+      <c r="BR236">
         <v>3</v>
       </c>
-      <c r="AN236">
-        <v>1</v>
-      </c>
-      <c r="AO236">
-        <v>0</v>
-      </c>
-      <c r="AP236">
-        <v>0</v>
-      </c>
-      <c r="AQ236">
-        <v>0</v>
-      </c>
-      <c r="AR236">
-        <v>0</v>
-      </c>
-      <c r="AS236">
-        <v>0</v>
-      </c>
-      <c r="AT236">
-        <v>0</v>
-      </c>
-      <c r="AU236">
-        <v>0</v>
-      </c>
-      <c r="AV236">
-        <v>0</v>
-      </c>
-      <c r="AW236">
-        <v>0</v>
-      </c>
-      <c r="AX236">
-        <v>0</v>
-      </c>
-      <c r="AY236">
-        <v>0</v>
-      </c>
-      <c r="AZ236">
-        <v>0</v>
-      </c>
-      <c r="BA236">
-        <v>0</v>
-      </c>
-      <c r="BB236">
-        <v>0</v>
-      </c>
-      <c r="BC236">
-        <v>0</v>
-      </c>
-      <c r="BD236">
-        <v>0</v>
-      </c>
-      <c r="BE236">
-        <v>0</v>
-      </c>
-      <c r="BF236">
-        <v>0</v>
-      </c>
-      <c r="BG236">
-        <v>0</v>
-      </c>
-      <c r="BH236">
-        <v>0</v>
-      </c>
-      <c r="BI236">
-        <v>0</v>
-      </c>
-      <c r="BJ236">
-        <v>0</v>
-      </c>
-      <c r="BK236">
-        <v>0</v>
-      </c>
-      <c r="BL236">
-        <v>0</v>
-      </c>
-      <c r="BM236">
-        <v>0</v>
-      </c>
-      <c r="BN236">
-        <v>0</v>
-      </c>
-      <c r="BO236">
-        <v>0</v>
-      </c>
-      <c r="BP236">
-        <v>0</v>
-      </c>
-      <c r="BQ236">
-        <v>0</v>
-      </c>
-      <c r="BR236">
-        <v>0</v>
-      </c>
       <c r="BS236">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT236">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU236">
         <v>0</v>

--- a/ZDIPlookup.xlsx
+++ b/ZDIPlookup.xlsx
@@ -54483,115 +54483,115 @@
         <v>377</v>
       </c>
       <c r="F206">
+        <v>17</v>
+      </c>
+      <c r="G206">
+        <v>14</v>
+      </c>
+      <c r="H206">
+        <v>14</v>
+      </c>
+      <c r="I206">
+        <v>7</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+      <c r="V206">
+        <v>17</v>
+      </c>
+      <c r="W206">
+        <v>14</v>
+      </c>
+      <c r="X206">
+        <v>14</v>
+      </c>
+      <c r="Y206">
+        <v>7</v>
+      </c>
+      <c r="Z206">
+        <v>3</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
         <v>4</v>
       </c>
-      <c r="G206">
-        <v>4</v>
-      </c>
-      <c r="H206">
-        <v>5</v>
-      </c>
-      <c r="I206">
+      <c r="AO206">
         <v>2</v>
       </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-      <c r="N206">
-        <v>0</v>
-      </c>
-      <c r="O206">
-        <v>0</v>
-      </c>
-      <c r="P206">
-        <v>0</v>
-      </c>
-      <c r="Q206">
-        <v>0</v>
-      </c>
-      <c r="R206">
-        <v>0</v>
-      </c>
-      <c r="S206">
-        <v>0</v>
-      </c>
-      <c r="T206">
-        <v>0</v>
-      </c>
-      <c r="U206">
-        <v>0</v>
-      </c>
-      <c r="V206">
-        <v>4</v>
-      </c>
-      <c r="W206">
-        <v>4</v>
-      </c>
-      <c r="X206">
-        <v>5</v>
-      </c>
-      <c r="Y206">
-        <v>2</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
-        <v>0</v>
-      </c>
-      <c r="AB206">
-        <v>0</v>
-      </c>
-      <c r="AC206">
-        <v>0</v>
-      </c>
-      <c r="AD206">
-        <v>0</v>
-      </c>
-      <c r="AE206">
-        <v>0</v>
-      </c>
-      <c r="AF206">
-        <v>0</v>
-      </c>
-      <c r="AG206">
-        <v>0</v>
-      </c>
-      <c r="AH206">
-        <v>0</v>
-      </c>
-      <c r="AI206">
-        <v>0</v>
-      </c>
-      <c r="AJ206">
-        <v>0</v>
-      </c>
-      <c r="AK206">
-        <v>0</v>
-      </c>
-      <c r="AL206">
-        <v>0</v>
-      </c>
-      <c r="AM206">
-        <v>0</v>
-      </c>
-      <c r="AN206">
-        <v>0</v>
-      </c>
-      <c r="AO206">
-        <v>0</v>
-      </c>
       <c r="AP206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ206">
         <v>0</v>
@@ -54675,19 +54675,19 @@
         <v>0</v>
       </c>
       <c r="BR206">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BS206">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BT206">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BU206">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BV206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW206">
         <v>0</v>
@@ -65151,16 +65151,16 @@
         <v>401</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G248">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -65199,16 +65199,16 @@
         <v>0</v>
       </c>
       <c r="V248">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W248">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X248">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z248">
         <v>0</v>
@@ -65343,16 +65343,16 @@
         <v>0</v>
       </c>
       <c r="BR248">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BS248">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BT248">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BU248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV248">
         <v>0</v>
